--- a/practice-set/LinuxQnA-v1.0.xlsx
+++ b/practice-set/LinuxQnA-v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajay.rabidas\OneDrive - Apexon\Desktop\Project_Detail\interview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5399198-C78D-42B8-9EF0-EE7E158894A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B22EBA-6DF9-4411-87D5-E6D5EE6772B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{CCFCAFEE-30F1-4F80-A4A1-4F3799C05426}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="359">
   <si>
     <t>other than java any programming language known</t>
   </si>
@@ -1333,6 +1333,357 @@
   </si>
   <si>
     <t>end</t>
+  </si>
+  <si>
+    <t>Use tools like `top`, `htop`, `ps`, `mpstat`, `sar` to identify the process causing high CPU usage.
+- Restart or kill the rogue process using `kill -9 &lt;pid&gt;` if necessary.
+- Check logs for application issues or infinite loops.
+- Use `nice`/`renice` to adjust priority or optimize the application.</t>
+  </si>
+  <si>
+    <t>Follow-up: Which tools or commands would you use to monitor processes and system performance?</t>
+  </si>
+  <si>
+    <t>top, htop
+vmstat, iostat, mpstat</t>
+  </si>
+  <si>
+    <t>Scenario: An application is consuming excessive memory over time, leading to Out of
+Memory (OOM) errors. How would you troubleshoot and address this issue?
+Follow-up: Explain how to analyze logs and memory usage using dmesg , top , or 
+vmstat</t>
+  </si>
+  <si>
+    <t>Use free -h to check memory usage and swap space.
+Use top or htop to identify processes consuming excessive memory.
+Debug the application by analyzing logs or attaching a profiler to monitor memory
+allocation.
+Restart the application as a temporary fix, but follow up with development to patch the
+memory leak.
+1 free -h
+2 top
+3 smem -t -k # Provides detailed memory usage per process</t>
+  </si>
+  <si>
+    <t>Scenario: A production server's disk is 100% full, and services are failing. What steps
+would you take to quickly free up space?
+Follow-up: How can you prevent this from happening in the future?</t>
+  </si>
+  <si>
+    <t>Identify large files with du :
+Clear unnecessary log files using rm or truncate :
+Check for core dumps or unnecessary backups in /var , /tmp , or /home .
+Prevention:
+Set up log rotation using logrotate to automatically manage log files</t>
+  </si>
+  <si>
+    <t>Scenario: A critical service has crashed and is not starting. Logs show "port already in
+use." How would you resolve this issue?
+Follow-up: Explain how to identify the process using the port and release it.</t>
+  </si>
+  <si>
+    <t>Find the process using the port:
+1 lsof -i :&lt;PORT&gt;
+2 netstat -tulnp | grep &lt;PORT&gt;
+Kill the process if needed:
+1 kill -9 &lt;PID&gt;
+Restart the service:
+1 systemctl restart &lt;service-name&gt;
+Prevention: Configure unique ports for services in /etc/&lt;service-config&gt;</t>
+  </si>
+  <si>
+    <t>Scenario: You notice multiple zombie processes on a server. What are zombie
+processes, and how would you handle them</t>
+  </si>
+  <si>
+    <t>Explanation: Zombie processes are processes that have completed execution but still have entries in the process table.
+Steps to Resolve:
+Find zombie processes:
+1 ps aux | grep 'Z'
+Identify the parent process ( PPID ) and terminate it:
+1 kill -HUP &lt;PPID&gt;</t>
+  </si>
+  <si>
+    <t>Scenario: A user reports a "Permission Denied" error while accessing a file. How would
+you troubleshoot and fix this?
+Follow-up: What is the difference between symbolic and numeric permissions in 
+chmod?</t>
+  </si>
+  <si>
+    <t>Check file permissions using ls -l
+Update permissions if needed:
+1 chmod 644 &lt;file&gt; # Example for read/write permissions
+Check file ownership and update:
+1 chown &lt;user&gt;:&lt;group&gt; &lt;file&gt;</t>
+  </si>
+  <si>
+    <t>Scenario: A critical configuration file appears corrupted, causing application failures.
+How would you recover the file if no recent backup is available</t>
+  </si>
+  <si>
+    <t>Check for available backups or previous versions of the file.
+Use fsck to scan for disk errors.
+Restore the file from a backup system or reconfigure the application.</t>
+  </si>
+  <si>
+    <t>Scenario: A log file has grown too large and is consuming significant disk space. How
+would you rotate the log file without restarting the application?</t>
+  </si>
+  <si>
+    <t>Temporarily truncate the file:
+1 &gt; /var/log/large.log
+Set up logrotate :
+Create a configuration file in /etc/logrotate.d/&lt;app-log&gt; .</t>
+  </si>
+  <si>
+    <t>Scenario: A service cannot connect to a database server, and you suspect a network
+issue. How would you diagnose and resolve this?
+Follow-up: Which Linux networking commands can help you troubleshoot connectivity?</t>
+  </si>
+  <si>
+    <t>Ping the database server to check connectivity:
+1 ping &lt;DB-IP&gt;
+Check if the port is reachable:
+1 telnet &lt;DB-IP&gt; &lt;PORT&gt;
+Ensure firewall rules allow access.
+1 ufw status
+2 iptables -L</t>
+  </si>
+  <si>
+    <t>Scenario: A server cannot resolve domain names, but the IP-based connection works
+fine. How would you troubleshoot this DNS issue?</t>
+  </si>
+  <si>
+    <t>Check /etc/resolv.conf for correct DNS entries.
+Test resolution using nslookup or dig :
+1 nslookup &lt;domain&gt;
+2 dig &lt;domain&gt;
+Restart networking services:
+1 systemctl restart networking</t>
+  </si>
+  <si>
+    <t>Scenario: You are tasked with automating backups for critical application data daily.
+What tools or scripts would you use?
+Follow-up: Explain how you would schedule this task using cron .</t>
+  </si>
+  <si>
+    <t>Use rsync or tar to back up data:
+1 rsync -av /source /backup
+2 tar -czf backup.tar.gz /source
+Schedule the job using cron :
+1 crontab -e
+2 0 2 * * * /path/to/backup.sh</t>
+  </si>
+  <si>
+    <t>Scenario: A shell script works fine in staging but fails in production with syntax errors.
+How would you debug and fix this issue?
+Follow-up: How can you ensure scripts are portable across environments?</t>
+  </si>
+  <si>
+    <t>Run the script with debugging enabled:
+1 bash -x script.sh
+Check for dependencies or environment-specific issues.
+Compare environment variables between staging and production.</t>
+  </si>
+  <si>
+    <t>Scenario: A server's logs show failed login attempts from an unknown IP. What steps
+would you take to secure the system?
+Follow-up: How would you block the IP and monitor future unauthorized access
+attempts?</t>
+  </si>
+  <si>
+    <t>Block the IP:
+1 iptables -A INPUT -s &lt;IP&gt; -j DROP
+Check login attempts in /var/log/auth.log or /var/log/secure .
+Prevention:
+Set up SSH key-based authentication.
+Use tools like fail2ban .</t>
+  </si>
+  <si>
+    <t>Scenario: A critical system file has been modified without authorization. How would you
+identify who made the changes and prevent this in the future?</t>
+  </si>
+  <si>
+    <t>Use auditd or tripwire to monitor file changes.
+Identify changes using lsattr and chattr .</t>
+  </si>
+  <si>
+    <t>Scenario: A mounted filesystem has suddenly become read-only. How would you
+troubleshoot and resolve this issue?</t>
+  </si>
+  <si>
+    <t>Remount the filesystem:
+1 mount -o remount,rw /mount/point
+Check for disk errors using dmesg or fsck .</t>
+  </si>
+  <si>
+    <t>Scenario: A service fails to start automatically after a server reboot. How would you
+debug and fix this problem?
+Follow-up: How can you ensure the service starts on boot in the future?</t>
+  </si>
+  <si>
+    <t>Enable the service:
+1 systemctl enable &lt;service&gt;
+Check logs for issues:
+1 journalctl -u &lt;service&gt;</t>
+  </si>
+  <si>
+    <t>Scenario: A database query is running slower than expected, causing delays in the
+application. How would you investigate and resolve this?
+Follow-up: How can you monitor query performance using Linux tools?</t>
+  </si>
+  <si>
+    <t>Use mysql or pg_stat_activity to monitor running queries.
+Analyze and optimize the query using EXPLAIN .</t>
+  </si>
+  <si>
+    <t>Scenario: A critical application error occurred, but logs are not being generated. How
+would you troubleshoot this issue?</t>
+  </si>
+  <si>
+    <t>Check if logging is enabled in the application configuration.
+Verify permissions on the log directory.</t>
+  </si>
+  <si>
+    <t>Scenario: A recent deployment caused data loss, and you need to restore from the
+latest backup. How would you ensure minimal downtime during the restoration
+process?</t>
+  </si>
+  <si>
+    <t>Stop the application to prevent further data corruption.
+Use the backup tool (e.g., rsync , tar ) to restore data.
+Verify the restoration and start services.</t>
+  </si>
+  <si>
+    <t>Scenario: Backups are failing intermittently, but the team is unaware until recovery is
+attempted. How would you design a solution to monitor backup integrity?</t>
+  </si>
+  <si>
+    <t>Test backups regularly using scheduled restore operations.
+Monitor backups with tools like Nagios or custom scripts.</t>
+  </si>
+  <si>
+    <t>You have a large log file, and you need to extract all lines that contain the word "error" (case insensitive). How would
+you do this with grep ?</t>
+  </si>
+  <si>
+    <t>Use the -i option to perform a case-insensitive search:
+1 grep -i "error" logfile.log</t>
+  </si>
+  <si>
+    <t>You are given a directory with multiple .txt files. How do you find all occurrences of the word "failed" in any .txt
+file within this directory and its subdirectories?</t>
+  </si>
+  <si>
+    <t>Use the -r option for recursive search and limit the search to .txt files.
+1 grep -r "failed" *.txt</t>
+  </si>
+  <si>
+    <t>In a file, you want to find only the occurrences of the word "cat" as a whole word (not part of another word like
+"catalog"). How would you achieve this?</t>
+  </si>
+  <si>
+    <t>Use the -w option to match whole words.
+1 grep -w "cat" filename.txt</t>
+  </si>
+  <si>
+    <t>You need to search for the word "exception" in a log file, but you also want to include 2 lines before and 2 lines after
+each match for context. What command would you use?</t>
+  </si>
+  <si>
+    <t>Use the -C option to specify the number of context lines.
+1 grep -C 2 "exception" logfile.log</t>
+  </si>
+  <si>
+    <t>Use the -E option (extended regular expressions) to specify multiple patterns.
+1 grep -E "error|warning" logfile.log</t>
+  </si>
+  <si>
+    <t>How would you count the number of lines in a file that contain the word "success"?</t>
+  </si>
+  <si>
+    <t>Use the -c option to count the matching lines.
+1 grep -c "success" filename.txt</t>
+  </si>
+  <si>
+    <t>You want to check if the word "timeout" exists in a configuration file but don’t need the actual matching lines—just a
+success/failure return code. How do you achieve this with grep ?</t>
+  </si>
+  <si>
+    <t>Use the -q option to suppress output and rely on the exit status.
+1 grep -q "timeout" config.conf
+If the word is found, the exit code will be 0 .
+If not found, the exit code will be 1 .</t>
+  </si>
+  <si>
+    <t>How would you find all lines in a file that do not contain the word "test"?</t>
+  </si>
+  <si>
+    <t>Use the -v option to invert the match.
+1 grep -v "test" filename.txt</t>
+  </si>
+  <si>
+    <t>You need to locate the lines where the word "server" appears in a file, along with their line numbers. What command would you use?</t>
+  </si>
+  <si>
+    <t>Use the -n option to display line numbers.
+1 grep -n "server" filename.txt</t>
+  </si>
+  <si>
+    <t>You need to find lines in a file that start with the word "Status". What command would you use?</t>
+  </si>
+  <si>
+    <t>Use the ^ anchor in your pattern to match the start of a line.
+1 grep "^Status" filename.txt</t>
+  </si>
+  <si>
+    <t>You need to extract all valid IPv4 addresses from a file. How would you do this using grep ?</t>
+  </si>
+  <si>
+    <t>Use a regular expression for matching IPv4 patterns with the -o option to display only the matching part of the line.
+1 grep -oE '([0-9]{1,3}\\.){3}[0-9]{1,3}' filename.txt</t>
+  </si>
+  <si>
+    <t>How would you search for the word "error" inside a compressed .gz log file without decompressing it manually?</t>
+  </si>
+  <si>
+    <t>Use the zgrep command to search within compressed files.
+1 zgrep "error" logfile.gz</t>
+  </si>
+  <si>
+    <t>You have a binary file, but you want to search for text in it. How would you instruct grep to treat the file as text?</t>
+  </si>
+  <si>
+    <t>Use the -a option to force grep to treat binary files as text.
+1 grep -a "pattern" binaryfile</t>
+  </si>
+  <si>
+    <t>How do you find all empty lines in a file using grep ?</t>
+  </si>
+  <si>
+    <t>Use the following pattern to search for empty lines (lines with no characters).
+1 grep "^$" filename.txt</t>
+  </si>
+  <si>
+    <t>You want to extract only the matching part of a line where the word "user" appears. How do you do this with grep ?</t>
+  </si>
+  <si>
+    <t>Use the -o option to print only the matched string.
+1 grep -o "user" filename.txt</t>
+  </si>
+  <si>
+    <t>You are performing a recursive grep search but want to exclude all .log files from the search. How would you do
+this?</t>
+  </si>
+  <si>
+    <t>Use the --exclude option to exclude files with a specific extension.
+1 grep -r "pattern" /path/to/search --exclude="*.log"</t>
+  </si>
+  <si>
+    <t>Grep</t>
+  </si>
+  <si>
+    <t>You are required to search a file for lines containing either "error" or "warning". How would you perform this search with grep ?</t>
   </si>
 </sst>
 </file>
@@ -1854,7 +2205,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1886,6 +2237,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2246,15 +2601,15 @@
   <dimension ref="A1:D500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B155" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="B161" sqref="B161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="96.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.140625" customWidth="1"/>
     <col min="4" max="4" width="29.140625" customWidth="1"/>
@@ -2669,7 +3024,7 @@
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="4"/>
+      <c r="A51" s="10"/>
       <c r="B51" s="5"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -2683,2691 +3038,2920 @@
       <c r="D52" s="9"/>
     </row>
     <row r="53" spans="1:4" ht="30">
-      <c r="A53" s="4"/>
+      <c r="A53" s="10">
+        <v>1</v>
+      </c>
       <c r="B53" s="12" t="s">
         <v>283</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
     </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="11"/>
+    <row r="54" spans="1:4" ht="60">
+      <c r="A54" s="10"/>
+      <c r="B54" s="11" t="s">
+        <v>285</v>
+      </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="4"/>
-      <c r="B55" s="11"/>
+      <c r="A55" s="10">
+        <v>2</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>286</v>
+      </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
     </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="4"/>
-      <c r="B56" s="11"/>
+    <row r="56" spans="1:4" ht="30">
+      <c r="A56" s="10"/>
+      <c r="B56" s="11" t="s">
+        <v>287</v>
+      </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="4"/>
+      <c r="A57" s="10"/>
       <c r="B57" s="11"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
     </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="4"/>
-      <c r="B58" s="11"/>
+    <row r="58" spans="1:4" ht="60">
+      <c r="A58" s="10">
+        <v>3</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>288</v>
+      </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
     </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="4"/>
-      <c r="B59" s="11"/>
+    <row r="59" spans="1:4" ht="150">
+      <c r="A59" s="10"/>
+      <c r="B59" s="11" t="s">
+        <v>289</v>
+      </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="4"/>
+      <c r="A60" s="10"/>
       <c r="B60" s="11"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="4"/>
-      <c r="B61" s="11"/>
+    <row r="61" spans="1:4" ht="45">
+      <c r="A61" s="10">
+        <v>4</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>290</v>
+      </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
     </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="4"/>
-      <c r="B62" s="11"/>
+    <row r="62" spans="1:4" ht="75">
+      <c r="A62" s="10"/>
+      <c r="B62" s="11" t="s">
+        <v>291</v>
+      </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="4"/>
+      <c r="A63" s="10"/>
       <c r="B63" s="11"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
     </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="4"/>
-      <c r="B64" s="11"/>
+    <row r="64" spans="1:4" ht="45">
+      <c r="A64" s="10">
+        <v>5</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>292</v>
+      </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
     </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="4"/>
-      <c r="B65" s="11"/>
+    <row r="65" spans="1:4" ht="165">
+      <c r="A65" s="10"/>
+      <c r="B65" s="11" t="s">
+        <v>293</v>
+      </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="4"/>
+      <c r="A66" s="10"/>
       <c r="B66" s="11"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
     </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="4"/>
-      <c r="B67" s="11"/>
+    <row r="67" spans="1:4" ht="30">
+      <c r="A67" s="10">
+        <v>6</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>294</v>
+      </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
     </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="4"/>
-      <c r="B68" s="11"/>
+    <row r="68" spans="1:4" ht="120">
+      <c r="A68" s="10"/>
+      <c r="B68" s="11" t="s">
+        <v>295</v>
+      </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="4"/>
+      <c r="A69" s="10"/>
       <c r="B69" s="11"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
     </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="4"/>
-      <c r="B70" s="11"/>
+    <row r="70" spans="1:4" ht="60">
+      <c r="A70" s="10">
+        <v>7</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>296</v>
+      </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
     </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="4"/>
-      <c r="B71" s="11"/>
+    <row r="71" spans="1:4" ht="90">
+      <c r="A71" s="10"/>
+      <c r="B71" s="11" t="s">
+        <v>297</v>
+      </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="4"/>
+      <c r="A72" s="10"/>
       <c r="B72" s="11"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
     </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="4"/>
-      <c r="B73" s="11"/>
+    <row r="73" spans="1:4" ht="30">
+      <c r="A73" s="10">
+        <v>8</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>298</v>
+      </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
     </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="4"/>
-      <c r="B74" s="11"/>
+    <row r="74" spans="1:4" ht="45">
+      <c r="A74" s="10"/>
+      <c r="B74" s="11" t="s">
+        <v>299</v>
+      </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="4"/>
+      <c r="A75" s="10"/>
       <c r="B75" s="11"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
     </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="4"/>
-      <c r="B76" s="11"/>
+    <row r="76" spans="1:4" ht="30">
+      <c r="A76" s="10">
+        <v>9</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>300</v>
+      </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
     </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="4"/>
-      <c r="B77" s="11"/>
+    <row r="77" spans="1:4" ht="75">
+      <c r="A77" s="10"/>
+      <c r="B77" s="11" t="s">
+        <v>301</v>
+      </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="4"/>
+      <c r="A78" s="10"/>
       <c r="B78" s="11"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
     </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="4"/>
-      <c r="B79" s="11"/>
+    <row r="79" spans="1:4" ht="45">
+      <c r="A79" s="10">
+        <v>10</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>302</v>
+      </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
     </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="4"/>
-      <c r="B80" s="11"/>
+    <row r="80" spans="1:4" ht="135">
+      <c r="A80" s="10"/>
+      <c r="B80" s="11" t="s">
+        <v>303</v>
+      </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="4"/>
+      <c r="A81" s="10"/>
       <c r="B81" s="11"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
     </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="4"/>
-      <c r="B82" s="11"/>
+    <row r="82" spans="1:4" ht="30">
+      <c r="A82" s="10">
+        <v>11</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>304</v>
+      </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
     </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="4"/>
-      <c r="B83" s="11"/>
+    <row r="83" spans="1:4" ht="105">
+      <c r="A83" s="10"/>
+      <c r="B83" s="11" t="s">
+        <v>305</v>
+      </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="4"/>
+      <c r="A84" s="10"/>
       <c r="B84" s="11"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
     </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="4"/>
-      <c r="B85" s="11"/>
+    <row r="85" spans="1:4" ht="45">
+      <c r="A85" s="10">
+        <v>12</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>306</v>
+      </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
     </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="4"/>
-      <c r="B86" s="11"/>
+    <row r="86" spans="1:4" ht="105">
+      <c r="A86" s="10"/>
+      <c r="B86" s="11" t="s">
+        <v>307</v>
+      </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="4"/>
+      <c r="A87" s="10"/>
       <c r="B87" s="11"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
     </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="4"/>
-      <c r="B88" s="11"/>
+    <row r="88" spans="1:4" ht="45">
+      <c r="A88" s="10">
+        <v>13</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>308</v>
+      </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
     </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="4"/>
-      <c r="B89" s="11"/>
+    <row r="89" spans="1:4" ht="75">
+      <c r="A89" s="10"/>
+      <c r="B89" s="11" t="s">
+        <v>309</v>
+      </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="4"/>
+      <c r="A90" s="10"/>
       <c r="B90" s="11"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
     </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="4"/>
-      <c r="B91" s="11"/>
+    <row r="91" spans="1:4" ht="60">
+      <c r="A91" s="10">
+        <v>14</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>310</v>
+      </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
     </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="4"/>
-      <c r="B92" s="11"/>
+    <row r="92" spans="1:4" ht="120">
+      <c r="A92" s="10"/>
+      <c r="B92" s="11" t="s">
+        <v>311</v>
+      </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="4"/>
+      <c r="A93" s="10"/>
       <c r="B93" s="11"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
     </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="4"/>
-      <c r="B94" s="11"/>
+    <row r="94" spans="1:4" ht="30">
+      <c r="A94" s="10">
+        <v>15</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>312</v>
+      </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
     </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="4"/>
-      <c r="B95" s="11"/>
+    <row r="95" spans="1:4" ht="30">
+      <c r="A95" s="10"/>
+      <c r="B95" s="11" t="s">
+        <v>313</v>
+      </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="4"/>
+      <c r="A96" s="10"/>
       <c r="B96" s="11"/>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
     </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="4"/>
-      <c r="B97" s="11"/>
+    <row r="97" spans="1:4" ht="30">
+      <c r="A97" s="10">
+        <v>16</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>314</v>
+      </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
     </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="4"/>
-      <c r="B98" s="11"/>
+    <row r="98" spans="1:4" ht="60">
+      <c r="A98" s="10"/>
+      <c r="B98" s="11" t="s">
+        <v>315</v>
+      </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="4"/>
+      <c r="A99" s="10"/>
       <c r="B99" s="11"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
     </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="4"/>
-      <c r="B100" s="11"/>
+    <row r="100" spans="1:4" ht="45">
+      <c r="A100" s="10">
+        <v>17</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>316</v>
+      </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
     </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="4"/>
-      <c r="B101" s="11"/>
+    <row r="101" spans="1:4" ht="75">
+      <c r="A101" s="10"/>
+      <c r="B101" s="11" t="s">
+        <v>317</v>
+      </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="4"/>
+      <c r="A102" s="10"/>
       <c r="B102" s="11"/>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
     </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="4"/>
-      <c r="B103" s="11"/>
+    <row r="103" spans="1:4" ht="45">
+      <c r="A103" s="10">
+        <v>18</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>318</v>
+      </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
     </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="4"/>
-      <c r="B104" s="11"/>
+    <row r="104" spans="1:4" ht="30">
+      <c r="A104" s="10"/>
+      <c r="B104" s="11" t="s">
+        <v>319</v>
+      </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="4"/>
+      <c r="A105" s="10"/>
       <c r="B105" s="11"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
     </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="4"/>
-      <c r="B106" s="11"/>
+    <row r="106" spans="1:4" ht="30">
+      <c r="A106" s="10">
+        <v>19</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>320</v>
+      </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
     </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="4"/>
-      <c r="B107" s="11"/>
+    <row r="107" spans="1:4" ht="30">
+      <c r="A107" s="10"/>
+      <c r="B107" s="11" t="s">
+        <v>321</v>
+      </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="4"/>
+      <c r="A108" s="10"/>
       <c r="B108" s="11"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
     </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="4"/>
-      <c r="B109" s="11"/>
+    <row r="109" spans="1:4" ht="45">
+      <c r="A109" s="10">
+        <v>20</v>
+      </c>
+      <c r="B109" s="12" t="s">
+        <v>322</v>
+      </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
     </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="4"/>
-      <c r="B110" s="11"/>
+    <row r="110" spans="1:4" ht="45">
+      <c r="A110" s="10"/>
+      <c r="B110" s="11" t="s">
+        <v>323</v>
+      </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="4"/>
+      <c r="A111" s="10"/>
       <c r="B111" s="11"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
     </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="4"/>
-      <c r="B112" s="11"/>
+    <row r="112" spans="1:4" ht="30">
+      <c r="A112" s="10">
+        <v>21</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>324</v>
+      </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
     </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="4"/>
-      <c r="B113" s="11"/>
+    <row r="113" spans="1:4" ht="30">
+      <c r="A113" s="10"/>
+      <c r="B113" s="11" t="s">
+        <v>325</v>
+      </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="4"/>
+      <c r="A114" s="10"/>
       <c r="B114" s="11"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
     </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="4"/>
-      <c r="B115" s="11"/>
-      <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" s="4"/>
-      <c r="B116" s="11"/>
+    <row r="115" spans="1:4" ht="30" customHeight="1">
+      <c r="A115" s="8"/>
+      <c r="B115" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="C115" s="9"/>
+      <c r="D115" s="9"/>
+    </row>
+    <row r="116" spans="1:4" ht="45">
+      <c r="A116" s="10">
+        <v>1</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>326</v>
+      </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
     </row>
-    <row r="117" spans="1:4">
-      <c r="A117" s="4"/>
-      <c r="B117" s="11"/>
+    <row r="117" spans="1:4" ht="30">
+      <c r="A117" s="10"/>
+      <c r="B117" s="11" t="s">
+        <v>327</v>
+      </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="4"/>
       <c r="B118" s="11"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
     </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="4"/>
-      <c r="B119" s="11"/>
+    <row r="119" spans="1:4" ht="45">
+      <c r="A119" s="10">
+        <v>2</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>328</v>
+      </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
     </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="4"/>
-      <c r="B120" s="11"/>
+    <row r="120" spans="1:4" ht="30">
+      <c r="A120" s="10"/>
+      <c r="B120" s="14" t="s">
+        <v>329</v>
+      </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="4"/>
+      <c r="A121" s="10"/>
       <c r="B121" s="11"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
     </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="4"/>
-      <c r="B122" s="11"/>
+    <row r="122" spans="1:4" ht="45">
+      <c r="A122" s="10">
+        <v>3</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>330</v>
+      </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
     </row>
-    <row r="123" spans="1:4">
-      <c r="A123" s="4"/>
-      <c r="B123" s="11"/>
+    <row r="123" spans="1:4" ht="30">
+      <c r="A123" s="10"/>
+      <c r="B123" s="11" t="s">
+        <v>331</v>
+      </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
     </row>
     <row r="124" spans="1:4">
-      <c r="A124" s="4"/>
+      <c r="A124" s="10"/>
       <c r="B124" s="11"/>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
     </row>
-    <row r="125" spans="1:4">
-      <c r="A125" s="4"/>
-      <c r="B125" s="11"/>
+    <row r="125" spans="1:4" ht="45">
+      <c r="A125" s="10">
+        <v>4</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>332</v>
+      </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
     </row>
-    <row r="126" spans="1:4">
-      <c r="A126" s="4"/>
-      <c r="B126" s="11"/>
+    <row r="126" spans="1:4" ht="30">
+      <c r="A126" s="10"/>
+      <c r="B126" s="11" t="s">
+        <v>333</v>
+      </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
     </row>
     <row r="127" spans="1:4">
-      <c r="A127" s="4"/>
+      <c r="A127" s="10"/>
       <c r="B127" s="11"/>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
     </row>
-    <row r="128" spans="1:4">
-      <c r="A128" s="4"/>
-      <c r="B128" s="11"/>
+    <row r="128" spans="1:4" ht="30">
+      <c r="A128" s="10">
+        <v>5</v>
+      </c>
+      <c r="B128" s="12" t="s">
+        <v>358</v>
+      </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
     </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="4"/>
-      <c r="B129" s="11"/>
+    <row r="129" spans="1:4" ht="30">
+      <c r="A129" s="10"/>
+      <c r="B129" s="11" t="s">
+        <v>334</v>
+      </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
     </row>
     <row r="130" spans="1:4">
-      <c r="A130" s="4"/>
+      <c r="A130" s="10"/>
       <c r="B130" s="11"/>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="4"/>
-      <c r="B131" s="11"/>
+      <c r="A131" s="10">
+        <v>6</v>
+      </c>
+      <c r="B131" s="12" t="s">
+        <v>335</v>
+      </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
     </row>
-    <row r="132" spans="1:4">
-      <c r="A132" s="4"/>
-      <c r="B132" s="11"/>
+    <row r="132" spans="1:4" ht="30">
+      <c r="A132" s="10"/>
+      <c r="B132" s="11" t="s">
+        <v>336</v>
+      </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="4"/>
+      <c r="A133" s="10"/>
       <c r="B133" s="11"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
     </row>
-    <row r="134" spans="1:4">
-      <c r="A134" s="4"/>
-      <c r="B134" s="11"/>
+    <row r="134" spans="1:4" ht="45">
+      <c r="A134" s="10">
+        <v>7</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>337</v>
+      </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
     </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="4"/>
-      <c r="B135" s="11"/>
+    <row r="135" spans="1:4" ht="75">
+      <c r="A135" s="10"/>
+      <c r="B135" s="11" t="s">
+        <v>338</v>
+      </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" s="4"/>
+      <c r="A136" s="10"/>
       <c r="B136" s="11"/>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
     </row>
     <row r="137" spans="1:4">
-      <c r="A137" s="4"/>
-      <c r="B137" s="11"/>
+      <c r="A137" s="10">
+        <v>8</v>
+      </c>
+      <c r="B137" s="12" t="s">
+        <v>339</v>
+      </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
     </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="4"/>
-      <c r="B138" s="11"/>
+    <row r="138" spans="1:4" ht="30">
+      <c r="A138" s="10"/>
+      <c r="B138" s="11" t="s">
+        <v>340</v>
+      </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
     </row>
     <row r="139" spans="1:4">
-      <c r="A139" s="4"/>
+      <c r="A139" s="10"/>
       <c r="B139" s="11"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
     </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="4"/>
-      <c r="B140" s="11"/>
+    <row r="140" spans="1:4" ht="30">
+      <c r="A140" s="10">
+        <v>9</v>
+      </c>
+      <c r="B140" s="12" t="s">
+        <v>341</v>
+      </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
     </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="4"/>
-      <c r="B141" s="11"/>
+    <row r="141" spans="1:4" ht="30">
+      <c r="A141" s="10"/>
+      <c r="B141" s="11" t="s">
+        <v>342</v>
+      </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
     </row>
     <row r="142" spans="1:4">
-      <c r="A142" s="4"/>
+      <c r="A142" s="10"/>
       <c r="B142" s="11"/>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
     </row>
     <row r="143" spans="1:4">
-      <c r="A143" s="4"/>
-      <c r="B143" s="11"/>
+      <c r="A143" s="10">
+        <v>10</v>
+      </c>
+      <c r="B143" s="12" t="s">
+        <v>343</v>
+      </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
     </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="4"/>
-      <c r="B144" s="11"/>
+    <row r="144" spans="1:4" ht="30">
+      <c r="A144" s="10"/>
+      <c r="B144" s="11" t="s">
+        <v>344</v>
+      </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
     </row>
     <row r="145" spans="1:4">
-      <c r="A145" s="4"/>
+      <c r="A145" s="10"/>
       <c r="B145" s="11"/>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
     </row>
     <row r="146" spans="1:4">
-      <c r="A146" s="4"/>
-      <c r="B146" s="11"/>
+      <c r="A146" s="10">
+        <v>11</v>
+      </c>
+      <c r="B146" s="12" t="s">
+        <v>345</v>
+      </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
     </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="4"/>
-      <c r="B147" s="11"/>
+    <row r="147" spans="1:4" ht="45">
+      <c r="A147" s="10"/>
+      <c r="B147" s="11" t="s">
+        <v>346</v>
+      </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
     </row>
     <row r="148" spans="1:4">
-      <c r="A148" s="4"/>
+      <c r="A148" s="10"/>
       <c r="B148" s="11"/>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
     </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="4"/>
-      <c r="B149" s="11"/>
+    <row r="149" spans="1:4" ht="30">
+      <c r="A149" s="10">
+        <v>12</v>
+      </c>
+      <c r="B149" s="12" t="s">
+        <v>347</v>
+      </c>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
     </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="4"/>
-      <c r="B150" s="11"/>
+    <row r="150" spans="1:4" ht="30">
+      <c r="A150" s="10"/>
+      <c r="B150" s="11" t="s">
+        <v>348</v>
+      </c>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
     </row>
     <row r="151" spans="1:4">
-      <c r="A151" s="4"/>
+      <c r="A151" s="10"/>
       <c r="B151" s="11"/>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
     </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="4"/>
-      <c r="B152" s="11"/>
+    <row r="152" spans="1:4" ht="30">
+      <c r="A152" s="10">
+        <v>13</v>
+      </c>
+      <c r="B152" s="12" t="s">
+        <v>349</v>
+      </c>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
     </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="4"/>
-      <c r="B153" s="11"/>
+    <row r="153" spans="1:4" ht="30">
+      <c r="A153" s="10"/>
+      <c r="B153" s="11" t="s">
+        <v>350</v>
+      </c>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
     </row>
     <row r="154" spans="1:4">
-      <c r="A154" s="4"/>
+      <c r="A154" s="10"/>
       <c r="B154" s="11"/>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
     </row>
     <row r="155" spans="1:4">
-      <c r="A155" s="4"/>
-      <c r="B155" s="11"/>
+      <c r="A155" s="10">
+        <v>14</v>
+      </c>
+      <c r="B155" s="12" t="s">
+        <v>351</v>
+      </c>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
     </row>
-    <row r="156" spans="1:4">
-      <c r="A156" s="4"/>
-      <c r="B156" s="11"/>
+    <row r="156" spans="1:4" ht="30">
+      <c r="A156" s="10"/>
+      <c r="B156" s="11" t="s">
+        <v>352</v>
+      </c>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="4"/>
+      <c r="A157" s="10"/>
       <c r="B157" s="11"/>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
     </row>
-    <row r="158" spans="1:4">
-      <c r="A158" s="4"/>
-      <c r="B158" s="11"/>
+    <row r="158" spans="1:4" ht="30">
+      <c r="A158" s="10">
+        <v>15</v>
+      </c>
+      <c r="B158" s="12" t="s">
+        <v>353</v>
+      </c>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
     </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="4"/>
-      <c r="B159" s="11"/>
+    <row r="159" spans="1:4" ht="30">
+      <c r="A159" s="10"/>
+      <c r="B159" s="11" t="s">
+        <v>354</v>
+      </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
     </row>
     <row r="160" spans="1:4">
-      <c r="A160" s="4"/>
+      <c r="A160" s="10"/>
       <c r="B160" s="11"/>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
     </row>
-    <row r="161" spans="1:4">
-      <c r="A161" s="4"/>
-      <c r="B161" s="11"/>
+    <row r="161" spans="1:4" ht="45">
+      <c r="A161" s="10">
+        <v>16</v>
+      </c>
+      <c r="B161" s="12" t="s">
+        <v>355</v>
+      </c>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
     </row>
-    <row r="162" spans="1:4">
-      <c r="A162" s="4"/>
-      <c r="B162" s="11"/>
+    <row r="162" spans="1:4" ht="30">
+      <c r="A162" s="10"/>
+      <c r="B162" s="11" t="s">
+        <v>356</v>
+      </c>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
     </row>
     <row r="163" spans="1:4">
-      <c r="A163" s="4"/>
+      <c r="A163" s="10"/>
       <c r="B163" s="11"/>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
     </row>
     <row r="164" spans="1:4">
-      <c r="A164" s="4"/>
+      <c r="A164" s="10">
+        <v>17</v>
+      </c>
       <c r="B164" s="11"/>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
     </row>
     <row r="165" spans="1:4">
-      <c r="A165" s="4"/>
+      <c r="A165" s="10"/>
       <c r="B165" s="11"/>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
     </row>
     <row r="166" spans="1:4">
-      <c r="A166" s="4"/>
+      <c r="A166" s="10"/>
       <c r="B166" s="11"/>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
     </row>
     <row r="167" spans="1:4">
-      <c r="A167" s="4"/>
+      <c r="A167" s="10">
+        <v>18</v>
+      </c>
       <c r="B167" s="11"/>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
     </row>
     <row r="168" spans="1:4">
-      <c r="A168" s="4"/>
+      <c r="A168" s="10"/>
       <c r="B168" s="11"/>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
     </row>
     <row r="169" spans="1:4">
-      <c r="A169" s="4"/>
+      <c r="A169" s="10"/>
       <c r="B169" s="11"/>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
     </row>
     <row r="170" spans="1:4">
-      <c r="A170" s="4"/>
+      <c r="A170" s="10">
+        <v>19</v>
+      </c>
       <c r="B170" s="11"/>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
     </row>
     <row r="171" spans="1:4">
-      <c r="A171" s="4"/>
+      <c r="A171" s="10"/>
       <c r="B171" s="11"/>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
     </row>
     <row r="172" spans="1:4">
-      <c r="A172" s="4"/>
+      <c r="A172" s="10"/>
       <c r="B172" s="11"/>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
     </row>
     <row r="173" spans="1:4">
-      <c r="A173" s="4"/>
+      <c r="A173" s="10">
+        <v>20</v>
+      </c>
       <c r="B173" s="11"/>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
     </row>
     <row r="174" spans="1:4">
-      <c r="A174" s="4"/>
+      <c r="A174" s="10"/>
       <c r="B174" s="11"/>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
     </row>
     <row r="175" spans="1:4">
-      <c r="A175" s="4"/>
+      <c r="A175" s="10"/>
       <c r="B175" s="11"/>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
     </row>
     <row r="176" spans="1:4">
-      <c r="A176" s="4"/>
+      <c r="A176" s="10"/>
       <c r="B176" s="11"/>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
     </row>
     <row r="177" spans="1:4">
-      <c r="A177" s="4"/>
+      <c r="A177" s="10"/>
       <c r="B177" s="11"/>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
     </row>
     <row r="178" spans="1:4">
-      <c r="A178" s="4"/>
+      <c r="A178" s="10"/>
       <c r="B178" s="11"/>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
     </row>
     <row r="179" spans="1:4">
-      <c r="A179" s="4"/>
+      <c r="A179" s="10"/>
       <c r="B179" s="11"/>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
     </row>
     <row r="180" spans="1:4">
-      <c r="A180" s="4"/>
+      <c r="A180" s="10"/>
       <c r="B180" s="11"/>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
     </row>
     <row r="181" spans="1:4">
-      <c r="A181" s="4"/>
+      <c r="A181" s="10"/>
       <c r="B181" s="11"/>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
     </row>
     <row r="182" spans="1:4">
-      <c r="A182" s="4"/>
+      <c r="A182" s="10"/>
       <c r="B182" s="11"/>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
     </row>
     <row r="183" spans="1:4">
-      <c r="A183" s="4"/>
+      <c r="A183" s="10"/>
       <c r="B183" s="11"/>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
     </row>
     <row r="184" spans="1:4">
-      <c r="A184" s="4"/>
+      <c r="A184" s="10"/>
       <c r="B184" s="11"/>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
     </row>
     <row r="185" spans="1:4">
-      <c r="A185" s="4"/>
+      <c r="A185" s="10"/>
       <c r="B185" s="11"/>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
     </row>
     <row r="186" spans="1:4">
-      <c r="A186" s="4"/>
+      <c r="A186" s="10"/>
       <c r="B186" s="11"/>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
     </row>
     <row r="187" spans="1:4">
-      <c r="A187" s="4"/>
+      <c r="A187" s="10"/>
       <c r="B187" s="11"/>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
     </row>
     <row r="188" spans="1:4">
-      <c r="A188" s="4"/>
+      <c r="A188" s="10"/>
       <c r="B188" s="11"/>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
     </row>
     <row r="189" spans="1:4">
-      <c r="A189" s="4"/>
+      <c r="A189" s="10"/>
       <c r="B189" s="11"/>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
     </row>
     <row r="190" spans="1:4">
-      <c r="A190" s="4"/>
+      <c r="A190" s="10"/>
       <c r="B190" s="11"/>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
     </row>
     <row r="191" spans="1:4">
-      <c r="A191" s="4"/>
+      <c r="A191" s="10"/>
       <c r="B191" s="11"/>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
     </row>
     <row r="192" spans="1:4">
-      <c r="A192" s="4"/>
+      <c r="A192" s="10"/>
       <c r="B192" s="11"/>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
     </row>
     <row r="193" spans="1:4">
-      <c r="A193" s="4"/>
+      <c r="A193" s="10"/>
       <c r="B193" s="11"/>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
     </row>
     <row r="194" spans="1:4">
-      <c r="A194" s="4"/>
+      <c r="A194" s="10"/>
       <c r="B194" s="11"/>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
     </row>
     <row r="195" spans="1:4">
-      <c r="A195" s="4"/>
+      <c r="A195" s="10"/>
       <c r="B195" s="11"/>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
     </row>
     <row r="196" spans="1:4">
-      <c r="A196" s="4"/>
+      <c r="A196" s="10"/>
       <c r="B196" s="11"/>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
     </row>
     <row r="197" spans="1:4">
-      <c r="A197" s="4"/>
+      <c r="A197" s="10"/>
       <c r="B197" s="11"/>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
     </row>
     <row r="198" spans="1:4">
-      <c r="A198" s="4"/>
+      <c r="A198" s="10"/>
       <c r="B198" s="11"/>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
     </row>
     <row r="199" spans="1:4">
-      <c r="A199" s="4"/>
+      <c r="A199" s="10"/>
       <c r="B199" s="11"/>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
     </row>
     <row r="200" spans="1:4">
-      <c r="A200" s="4"/>
+      <c r="A200" s="10"/>
       <c r="B200" s="11"/>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
     </row>
     <row r="201" spans="1:4">
-      <c r="A201" s="4"/>
+      <c r="A201" s="10"/>
       <c r="B201" s="11"/>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
     </row>
     <row r="202" spans="1:4">
-      <c r="A202" s="4"/>
+      <c r="A202" s="10"/>
       <c r="B202" s="11"/>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
     </row>
     <row r="203" spans="1:4">
-      <c r="A203" s="4"/>
+      <c r="A203" s="10"/>
       <c r="B203" s="11"/>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
     </row>
     <row r="204" spans="1:4">
-      <c r="A204" s="4"/>
+      <c r="A204" s="10"/>
       <c r="B204" s="11"/>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
     </row>
     <row r="205" spans="1:4">
-      <c r="A205" s="4"/>
+      <c r="A205" s="10"/>
       <c r="B205" s="11"/>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
     </row>
     <row r="206" spans="1:4">
-      <c r="A206" s="4"/>
+      <c r="A206" s="10"/>
       <c r="B206" s="11"/>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
     </row>
     <row r="207" spans="1:4">
-      <c r="A207" s="4"/>
+      <c r="A207" s="10"/>
       <c r="B207" s="11"/>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
     </row>
     <row r="208" spans="1:4">
-      <c r="A208" s="4"/>
+      <c r="A208" s="10"/>
       <c r="B208" s="11"/>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
     </row>
     <row r="209" spans="1:4">
-      <c r="A209" s="4"/>
+      <c r="A209" s="10"/>
       <c r="B209" s="11"/>
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
     </row>
     <row r="210" spans="1:4">
-      <c r="A210" s="4"/>
+      <c r="A210" s="10"/>
       <c r="B210" s="11"/>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
     </row>
     <row r="211" spans="1:4">
-      <c r="A211" s="4"/>
+      <c r="A211" s="10"/>
       <c r="B211" s="11"/>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
     </row>
     <row r="212" spans="1:4">
-      <c r="A212" s="4"/>
+      <c r="A212" s="10"/>
       <c r="B212" s="11"/>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
     </row>
     <row r="213" spans="1:4">
-      <c r="A213" s="4"/>
+      <c r="A213" s="10"/>
       <c r="B213" s="11"/>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
     </row>
     <row r="214" spans="1:4">
-      <c r="A214" s="4"/>
+      <c r="A214" s="10"/>
       <c r="B214" s="11"/>
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
     </row>
     <row r="215" spans="1:4">
-      <c r="A215" s="4"/>
+      <c r="A215" s="10"/>
       <c r="B215" s="11"/>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
     </row>
     <row r="216" spans="1:4">
-      <c r="A216" s="4"/>
+      <c r="A216" s="10"/>
       <c r="B216" s="11"/>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
     </row>
     <row r="217" spans="1:4">
-      <c r="A217" s="4"/>
+      <c r="A217" s="10"/>
       <c r="B217" s="11"/>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
     </row>
     <row r="218" spans="1:4">
-      <c r="A218" s="4"/>
+      <c r="A218" s="10"/>
       <c r="B218" s="11"/>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
     </row>
     <row r="219" spans="1:4">
-      <c r="A219" s="4"/>
+      <c r="A219" s="10"/>
       <c r="B219" s="11"/>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
     </row>
     <row r="220" spans="1:4">
-      <c r="A220" s="4"/>
+      <c r="A220" s="10"/>
       <c r="B220" s="11"/>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
     </row>
     <row r="221" spans="1:4">
-      <c r="A221" s="4"/>
+      <c r="A221" s="10"/>
       <c r="B221" s="11"/>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
     </row>
     <row r="222" spans="1:4">
-      <c r="A222" s="4"/>
+      <c r="A222" s="10"/>
       <c r="B222" s="11"/>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
     </row>
     <row r="223" spans="1:4">
-      <c r="A223" s="4"/>
+      <c r="A223" s="10"/>
       <c r="B223" s="11"/>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
     </row>
     <row r="224" spans="1:4">
-      <c r="A224" s="4"/>
+      <c r="A224" s="10"/>
       <c r="B224" s="11"/>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
     </row>
     <row r="225" spans="1:4">
-      <c r="A225" s="4"/>
+      <c r="A225" s="10"/>
       <c r="B225" s="11"/>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
     </row>
     <row r="226" spans="1:4">
-      <c r="A226" s="4"/>
+      <c r="A226" s="10"/>
       <c r="B226" s="11"/>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
     </row>
     <row r="227" spans="1:4">
-      <c r="A227" s="4"/>
+      <c r="A227" s="10"/>
       <c r="B227" s="11"/>
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
     </row>
     <row r="228" spans="1:4">
-      <c r="A228" s="4"/>
+      <c r="A228" s="10"/>
       <c r="B228" s="11"/>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
     </row>
     <row r="229" spans="1:4">
-      <c r="A229" s="4"/>
+      <c r="A229" s="10"/>
       <c r="B229" s="11"/>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
     </row>
     <row r="230" spans="1:4">
-      <c r="A230" s="4"/>
+      <c r="A230" s="10"/>
       <c r="B230" s="11"/>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
     </row>
     <row r="231" spans="1:4">
-      <c r="A231" s="4"/>
+      <c r="A231" s="10"/>
       <c r="B231" s="11"/>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
     </row>
     <row r="232" spans="1:4">
-      <c r="A232" s="4"/>
+      <c r="A232" s="10"/>
       <c r="B232" s="11"/>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
     </row>
     <row r="233" spans="1:4">
-      <c r="A233" s="4"/>
+      <c r="A233" s="10"/>
       <c r="B233" s="11"/>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
     </row>
     <row r="234" spans="1:4">
-      <c r="A234" s="4"/>
+      <c r="A234" s="10"/>
       <c r="B234" s="11"/>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
     </row>
     <row r="235" spans="1:4">
-      <c r="A235" s="4"/>
+      <c r="A235" s="10"/>
       <c r="B235" s="11"/>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
     </row>
     <row r="236" spans="1:4">
-      <c r="A236" s="4"/>
+      <c r="A236" s="10"/>
       <c r="B236" s="11"/>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
     </row>
     <row r="237" spans="1:4">
-      <c r="A237" s="4"/>
+      <c r="A237" s="10"/>
       <c r="B237" s="11"/>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
     </row>
     <row r="238" spans="1:4">
-      <c r="A238" s="4"/>
+      <c r="A238" s="10"/>
       <c r="B238" s="11"/>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
     </row>
     <row r="239" spans="1:4">
-      <c r="A239" s="4"/>
+      <c r="A239" s="10"/>
       <c r="B239" s="11"/>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
     </row>
     <row r="240" spans="1:4">
-      <c r="A240" s="4"/>
+      <c r="A240" s="10"/>
       <c r="B240" s="11"/>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
     </row>
     <row r="241" spans="1:4">
-      <c r="A241" s="4"/>
+      <c r="A241" s="10"/>
       <c r="B241" s="11"/>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
     </row>
     <row r="242" spans="1:4">
-      <c r="A242" s="4"/>
+      <c r="A242" s="10"/>
       <c r="B242" s="11"/>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
     </row>
     <row r="243" spans="1:4">
-      <c r="A243" s="4"/>
+      <c r="A243" s="10"/>
       <c r="B243" s="11"/>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
     </row>
     <row r="244" spans="1:4">
-      <c r="A244" s="4"/>
+      <c r="A244" s="10"/>
       <c r="B244" s="11"/>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
     </row>
     <row r="245" spans="1:4">
-      <c r="A245" s="4"/>
+      <c r="A245" s="10"/>
       <c r="B245" s="11"/>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
     </row>
     <row r="246" spans="1:4">
-      <c r="A246" s="4"/>
+      <c r="A246" s="10"/>
       <c r="B246" s="11"/>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
     </row>
     <row r="247" spans="1:4">
-      <c r="A247" s="4"/>
+      <c r="A247" s="10"/>
       <c r="B247" s="11"/>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
     </row>
     <row r="248" spans="1:4">
-      <c r="A248" s="4"/>
+      <c r="A248" s="10"/>
       <c r="B248" s="11"/>
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
     </row>
     <row r="249" spans="1:4">
-      <c r="A249" s="4"/>
+      <c r="A249" s="10"/>
       <c r="B249" s="11"/>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
     </row>
     <row r="250" spans="1:4">
-      <c r="A250" s="4"/>
+      <c r="A250" s="10"/>
       <c r="B250" s="11"/>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
     </row>
     <row r="251" spans="1:4">
-      <c r="A251" s="4"/>
+      <c r="A251" s="10"/>
       <c r="B251" s="11"/>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
     </row>
     <row r="252" spans="1:4">
-      <c r="A252" s="4"/>
+      <c r="A252" s="10"/>
       <c r="B252" s="11"/>
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
     </row>
     <row r="253" spans="1:4">
-      <c r="A253" s="4"/>
+      <c r="A253" s="10"/>
       <c r="B253" s="11"/>
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
     </row>
     <row r="254" spans="1:4">
-      <c r="A254" s="4"/>
+      <c r="A254" s="10"/>
       <c r="B254" s="11"/>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
     </row>
     <row r="255" spans="1:4">
-      <c r="A255" s="4"/>
+      <c r="A255" s="10"/>
       <c r="B255" s="11"/>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
     </row>
     <row r="256" spans="1:4">
-      <c r="A256" s="4"/>
+      <c r="A256" s="10"/>
       <c r="B256" s="11"/>
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
     </row>
     <row r="257" spans="1:4">
-      <c r="A257" s="4"/>
+      <c r="A257" s="10"/>
       <c r="B257" s="11"/>
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
     </row>
     <row r="258" spans="1:4">
-      <c r="A258" s="4"/>
+      <c r="A258" s="10"/>
       <c r="B258" s="11"/>
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
     </row>
     <row r="259" spans="1:4">
-      <c r="A259" s="4"/>
+      <c r="A259" s="10"/>
       <c r="B259" s="11"/>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
     </row>
     <row r="260" spans="1:4">
-      <c r="A260" s="4"/>
+      <c r="A260" s="10"/>
       <c r="B260" s="11"/>
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
     </row>
     <row r="261" spans="1:4">
-      <c r="A261" s="4"/>
+      <c r="A261" s="10"/>
       <c r="B261" s="11"/>
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
     </row>
     <row r="262" spans="1:4">
-      <c r="A262" s="4"/>
+      <c r="A262" s="10"/>
       <c r="B262" s="11"/>
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
     </row>
     <row r="263" spans="1:4">
-      <c r="A263" s="4"/>
+      <c r="A263" s="10"/>
       <c r="B263" s="11"/>
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
     </row>
     <row r="264" spans="1:4">
-      <c r="A264" s="4"/>
+      <c r="A264" s="10"/>
       <c r="B264" s="11"/>
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
     </row>
     <row r="265" spans="1:4">
-      <c r="A265" s="4"/>
+      <c r="A265" s="10"/>
       <c r="B265" s="11"/>
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
     </row>
     <row r="266" spans="1:4">
-      <c r="A266" s="4"/>
+      <c r="A266" s="10"/>
       <c r="B266" s="11"/>
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
     </row>
     <row r="267" spans="1:4">
-      <c r="A267" s="4"/>
+      <c r="A267" s="10"/>
       <c r="B267" s="11"/>
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
     </row>
     <row r="268" spans="1:4">
-      <c r="A268" s="4"/>
+      <c r="A268" s="10"/>
       <c r="B268" s="11"/>
       <c r="C268" s="4"/>
       <c r="D268" s="4"/>
     </row>
     <row r="269" spans="1:4">
-      <c r="A269" s="4"/>
+      <c r="A269" s="10"/>
       <c r="B269" s="11"/>
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
     </row>
     <row r="270" spans="1:4">
-      <c r="A270" s="4"/>
+      <c r="A270" s="10"/>
       <c r="B270" s="11"/>
       <c r="C270" s="4"/>
       <c r="D270" s="4"/>
     </row>
     <row r="271" spans="1:4">
-      <c r="A271" s="4"/>
+      <c r="A271" s="10"/>
       <c r="B271" s="11"/>
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
     </row>
     <row r="272" spans="1:4">
-      <c r="A272" s="4"/>
+      <c r="A272" s="10"/>
       <c r="B272" s="11"/>
       <c r="C272" s="4"/>
       <c r="D272" s="4"/>
     </row>
     <row r="273" spans="1:4">
-      <c r="A273" s="4"/>
+      <c r="A273" s="10"/>
       <c r="B273" s="11"/>
       <c r="C273" s="4"/>
       <c r="D273" s="4"/>
     </row>
     <row r="274" spans="1:4">
-      <c r="A274" s="4"/>
+      <c r="A274" s="10"/>
       <c r="B274" s="11"/>
       <c r="C274" s="4"/>
       <c r="D274" s="4"/>
     </row>
     <row r="275" spans="1:4">
-      <c r="A275" s="4"/>
+      <c r="A275" s="10"/>
       <c r="B275" s="11"/>
       <c r="C275" s="4"/>
       <c r="D275" s="4"/>
     </row>
     <row r="276" spans="1:4">
-      <c r="A276" s="4"/>
+      <c r="A276" s="10"/>
       <c r="B276" s="11"/>
       <c r="C276" s="4"/>
       <c r="D276" s="4"/>
     </row>
     <row r="277" spans="1:4">
-      <c r="A277" s="4"/>
+      <c r="A277" s="10"/>
       <c r="B277" s="11"/>
       <c r="C277" s="4"/>
       <c r="D277" s="4"/>
     </row>
     <row r="278" spans="1:4">
-      <c r="A278" s="4"/>
+      <c r="A278" s="10"/>
       <c r="B278" s="11"/>
       <c r="C278" s="4"/>
       <c r="D278" s="4"/>
     </row>
     <row r="279" spans="1:4">
-      <c r="A279" s="4"/>
+      <c r="A279" s="10"/>
       <c r="B279" s="11"/>
       <c r="C279" s="4"/>
       <c r="D279" s="4"/>
     </row>
     <row r="280" spans="1:4">
-      <c r="A280" s="4"/>
+      <c r="A280" s="10"/>
       <c r="B280" s="11"/>
       <c r="C280" s="4"/>
       <c r="D280" s="4"/>
     </row>
     <row r="281" spans="1:4">
-      <c r="A281" s="4"/>
+      <c r="A281" s="10"/>
       <c r="B281" s="11"/>
       <c r="C281" s="4"/>
       <c r="D281" s="4"/>
     </row>
     <row r="282" spans="1:4">
-      <c r="A282" s="4"/>
+      <c r="A282" s="10"/>
       <c r="B282" s="11"/>
       <c r="C282" s="4"/>
       <c r="D282" s="4"/>
     </row>
     <row r="283" spans="1:4">
-      <c r="A283" s="4"/>
+      <c r="A283" s="10"/>
       <c r="B283" s="11"/>
       <c r="C283" s="4"/>
       <c r="D283" s="4"/>
     </row>
     <row r="284" spans="1:4">
-      <c r="A284" s="4"/>
+      <c r="A284" s="10"/>
       <c r="B284" s="11"/>
       <c r="C284" s="4"/>
       <c r="D284" s="4"/>
     </row>
     <row r="285" spans="1:4">
-      <c r="A285" s="4"/>
+      <c r="A285" s="10"/>
       <c r="B285" s="11"/>
       <c r="C285" s="4"/>
       <c r="D285" s="4"/>
     </row>
     <row r="286" spans="1:4">
-      <c r="A286" s="4"/>
+      <c r="A286" s="10"/>
       <c r="B286" s="11"/>
       <c r="C286" s="4"/>
       <c r="D286" s="4"/>
     </row>
     <row r="287" spans="1:4">
-      <c r="A287" s="4"/>
+      <c r="A287" s="10"/>
       <c r="B287" s="11"/>
       <c r="C287" s="4"/>
       <c r="D287" s="4"/>
     </row>
     <row r="288" spans="1:4">
-      <c r="A288" s="4"/>
+      <c r="A288" s="10"/>
       <c r="B288" s="11"/>
       <c r="C288" s="4"/>
       <c r="D288" s="4"/>
     </row>
     <row r="289" spans="1:4">
-      <c r="A289" s="4"/>
+      <c r="A289" s="10"/>
       <c r="B289" s="11"/>
       <c r="C289" s="4"/>
       <c r="D289" s="4"/>
     </row>
     <row r="290" spans="1:4">
-      <c r="A290" s="4"/>
+      <c r="A290" s="10"/>
       <c r="B290" s="11"/>
       <c r="C290" s="4"/>
       <c r="D290" s="4"/>
     </row>
     <row r="291" spans="1:4">
-      <c r="A291" s="4"/>
+      <c r="A291" s="10"/>
       <c r="B291" s="11"/>
       <c r="C291" s="4"/>
       <c r="D291" s="4"/>
     </row>
     <row r="292" spans="1:4">
-      <c r="A292" s="4"/>
+      <c r="A292" s="10"/>
       <c r="B292" s="11"/>
       <c r="C292" s="4"/>
       <c r="D292" s="4"/>
     </row>
     <row r="293" spans="1:4">
-      <c r="A293" s="4"/>
+      <c r="A293" s="10"/>
       <c r="B293" s="11"/>
       <c r="C293" s="4"/>
       <c r="D293" s="4"/>
     </row>
     <row r="294" spans="1:4">
-      <c r="A294" s="4"/>
+      <c r="A294" s="10"/>
       <c r="B294" s="11"/>
       <c r="C294" s="4"/>
       <c r="D294" s="4"/>
     </row>
     <row r="295" spans="1:4">
-      <c r="A295" s="4"/>
+      <c r="A295" s="10"/>
       <c r="B295" s="11"/>
       <c r="C295" s="4"/>
       <c r="D295" s="4"/>
     </row>
     <row r="296" spans="1:4">
-      <c r="A296" s="4"/>
+      <c r="A296" s="10"/>
       <c r="B296" s="11"/>
       <c r="C296" s="4"/>
       <c r="D296" s="4"/>
     </row>
     <row r="297" spans="1:4">
-      <c r="A297" s="4"/>
+      <c r="A297" s="10"/>
       <c r="B297" s="11"/>
       <c r="C297" s="4"/>
       <c r="D297" s="4"/>
     </row>
     <row r="298" spans="1:4">
-      <c r="A298" s="4"/>
+      <c r="A298" s="10"/>
       <c r="B298" s="11"/>
       <c r="C298" s="4"/>
       <c r="D298" s="4"/>
     </row>
     <row r="299" spans="1:4">
-      <c r="A299" s="4"/>
+      <c r="A299" s="10"/>
       <c r="B299" s="11"/>
       <c r="C299" s="4"/>
       <c r="D299" s="4"/>
     </row>
     <row r="300" spans="1:4">
-      <c r="A300" s="4"/>
+      <c r="A300" s="10"/>
       <c r="B300" s="11"/>
       <c r="C300" s="4"/>
       <c r="D300" s="4"/>
     </row>
     <row r="301" spans="1:4">
-      <c r="A301" s="4"/>
+      <c r="A301" s="10"/>
       <c r="B301" s="11"/>
       <c r="C301" s="4"/>
       <c r="D301" s="4"/>
     </row>
     <row r="302" spans="1:4">
-      <c r="A302" s="4"/>
+      <c r="A302" s="10"/>
       <c r="B302" s="11"/>
       <c r="C302" s="4"/>
       <c r="D302" s="4"/>
     </row>
     <row r="303" spans="1:4">
-      <c r="A303" s="4"/>
+      <c r="A303" s="10"/>
       <c r="B303" s="11"/>
       <c r="C303" s="4"/>
       <c r="D303" s="4"/>
     </row>
     <row r="304" spans="1:4">
-      <c r="A304" s="4"/>
+      <c r="A304" s="10"/>
       <c r="B304" s="11"/>
       <c r="C304" s="4"/>
       <c r="D304" s="4"/>
     </row>
     <row r="305" spans="1:4">
-      <c r="A305" s="4"/>
+      <c r="A305" s="10"/>
       <c r="B305" s="11"/>
       <c r="C305" s="4"/>
       <c r="D305" s="4"/>
     </row>
     <row r="306" spans="1:4">
-      <c r="A306" s="4"/>
+      <c r="A306" s="10"/>
       <c r="B306" s="11"/>
       <c r="C306" s="4"/>
       <c r="D306" s="4"/>
     </row>
     <row r="307" spans="1:4">
-      <c r="A307" s="4"/>
+      <c r="A307" s="10"/>
       <c r="B307" s="11"/>
       <c r="C307" s="4"/>
       <c r="D307" s="4"/>
     </row>
     <row r="308" spans="1:4">
-      <c r="A308" s="4"/>
+      <c r="A308" s="10"/>
       <c r="B308" s="11"/>
       <c r="C308" s="4"/>
       <c r="D308" s="4"/>
     </row>
     <row r="309" spans="1:4">
-      <c r="A309" s="4"/>
+      <c r="A309" s="10"/>
       <c r="B309" s="11"/>
       <c r="C309" s="4"/>
       <c r="D309" s="4"/>
     </row>
     <row r="310" spans="1:4">
-      <c r="A310" s="4"/>
+      <c r="A310" s="10"/>
       <c r="B310" s="11"/>
       <c r="C310" s="4"/>
       <c r="D310" s="4"/>
     </row>
     <row r="311" spans="1:4">
-      <c r="A311" s="4"/>
+      <c r="A311" s="10"/>
       <c r="B311" s="11"/>
       <c r="C311" s="4"/>
       <c r="D311" s="4"/>
     </row>
     <row r="312" spans="1:4">
-      <c r="A312" s="4"/>
+      <c r="A312" s="10"/>
       <c r="B312" s="11"/>
       <c r="C312" s="4"/>
       <c r="D312" s="4"/>
     </row>
     <row r="313" spans="1:4">
-      <c r="A313" s="4"/>
+      <c r="A313" s="10"/>
       <c r="B313" s="11"/>
       <c r="C313" s="4"/>
       <c r="D313" s="4"/>
     </row>
     <row r="314" spans="1:4">
-      <c r="A314" s="4"/>
+      <c r="A314" s="10"/>
       <c r="B314" s="11"/>
       <c r="C314" s="4"/>
       <c r="D314" s="4"/>
     </row>
     <row r="315" spans="1:4">
-      <c r="A315" s="4"/>
+      <c r="A315" s="10"/>
       <c r="B315" s="11"/>
       <c r="C315" s="4"/>
       <c r="D315" s="4"/>
     </row>
     <row r="316" spans="1:4">
-      <c r="A316" s="4"/>
+      <c r="A316" s="10"/>
       <c r="B316" s="11"/>
       <c r="C316" s="4"/>
       <c r="D316" s="4"/>
     </row>
     <row r="317" spans="1:4">
-      <c r="A317" s="4"/>
+      <c r="A317" s="10"/>
       <c r="B317" s="11"/>
       <c r="C317" s="4"/>
       <c r="D317" s="4"/>
     </row>
     <row r="318" spans="1:4">
-      <c r="A318" s="4"/>
+      <c r="A318" s="10"/>
       <c r="B318" s="11"/>
       <c r="C318" s="4"/>
       <c r="D318" s="4"/>
     </row>
     <row r="319" spans="1:4">
-      <c r="A319" s="4"/>
+      <c r="A319" s="10"/>
       <c r="B319" s="11"/>
       <c r="C319" s="4"/>
       <c r="D319" s="4"/>
     </row>
     <row r="320" spans="1:4">
-      <c r="A320" s="4"/>
+      <c r="A320" s="10"/>
       <c r="B320" s="11"/>
       <c r="C320" s="4"/>
       <c r="D320" s="4"/>
     </row>
     <row r="321" spans="1:4">
-      <c r="A321" s="4"/>
+      <c r="A321" s="10"/>
       <c r="B321" s="11"/>
       <c r="C321" s="4"/>
       <c r="D321" s="4"/>
     </row>
     <row r="322" spans="1:4">
-      <c r="A322" s="4"/>
+      <c r="A322" s="10"/>
       <c r="B322" s="11"/>
       <c r="C322" s="4"/>
       <c r="D322" s="4"/>
     </row>
     <row r="323" spans="1:4">
-      <c r="A323" s="4"/>
+      <c r="A323" s="10"/>
       <c r="B323" s="11"/>
       <c r="C323" s="4"/>
       <c r="D323" s="4"/>
     </row>
     <row r="324" spans="1:4">
-      <c r="A324" s="4"/>
+      <c r="A324" s="10"/>
       <c r="B324" s="11"/>
       <c r="C324" s="4"/>
       <c r="D324" s="4"/>
     </row>
     <row r="325" spans="1:4">
-      <c r="A325" s="4"/>
+      <c r="A325" s="10"/>
       <c r="B325" s="11"/>
       <c r="C325" s="4"/>
       <c r="D325" s="4"/>
     </row>
     <row r="326" spans="1:4">
-      <c r="A326" s="4"/>
+      <c r="A326" s="10"/>
       <c r="B326" s="11"/>
       <c r="C326" s="4"/>
       <c r="D326" s="4"/>
     </row>
     <row r="327" spans="1:4">
-      <c r="A327" s="4"/>
+      <c r="A327" s="10"/>
       <c r="B327" s="11"/>
       <c r="C327" s="4"/>
       <c r="D327" s="4"/>
     </row>
     <row r="328" spans="1:4">
-      <c r="A328" s="4"/>
+      <c r="A328" s="10"/>
       <c r="B328" s="11"/>
       <c r="C328" s="4"/>
       <c r="D328" s="4"/>
     </row>
     <row r="329" spans="1:4">
-      <c r="A329" s="4"/>
+      <c r="A329" s="10"/>
       <c r="B329" s="11"/>
       <c r="C329" s="4"/>
       <c r="D329" s="4"/>
     </row>
     <row r="330" spans="1:4">
-      <c r="A330" s="4"/>
+      <c r="A330" s="10"/>
       <c r="B330" s="11"/>
       <c r="C330" s="4"/>
       <c r="D330" s="4"/>
     </row>
     <row r="331" spans="1:4">
-      <c r="A331" s="4"/>
+      <c r="A331" s="10"/>
       <c r="B331" s="11"/>
       <c r="C331" s="4"/>
       <c r="D331" s="4"/>
     </row>
     <row r="332" spans="1:4">
-      <c r="A332" s="4"/>
+      <c r="A332" s="10"/>
       <c r="B332" s="11"/>
       <c r="C332" s="4"/>
       <c r="D332" s="4"/>
     </row>
     <row r="333" spans="1:4">
-      <c r="A333" s="4"/>
+      <c r="A333" s="10"/>
       <c r="B333" s="11"/>
       <c r="C333" s="4"/>
       <c r="D333" s="4"/>
     </row>
     <row r="334" spans="1:4">
-      <c r="A334" s="4"/>
+      <c r="A334" s="10"/>
       <c r="B334" s="11"/>
       <c r="C334" s="4"/>
       <c r="D334" s="4"/>
     </row>
     <row r="335" spans="1:4">
-      <c r="A335" s="4"/>
+      <c r="A335" s="10"/>
       <c r="B335" s="11"/>
       <c r="C335" s="4"/>
       <c r="D335" s="4"/>
     </row>
     <row r="336" spans="1:4">
-      <c r="A336" s="4"/>
+      <c r="A336" s="10"/>
       <c r="B336" s="11"/>
       <c r="C336" s="4"/>
       <c r="D336" s="4"/>
     </row>
     <row r="337" spans="1:4">
-      <c r="A337" s="4"/>
+      <c r="A337" s="10"/>
       <c r="B337" s="11"/>
       <c r="C337" s="4"/>
       <c r="D337" s="4"/>
     </row>
     <row r="338" spans="1:4">
-      <c r="A338" s="4"/>
+      <c r="A338" s="10"/>
       <c r="B338" s="11"/>
       <c r="C338" s="4"/>
       <c r="D338" s="4"/>
     </row>
     <row r="339" spans="1:4">
-      <c r="A339" s="4"/>
+      <c r="A339" s="10"/>
       <c r="B339" s="11"/>
       <c r="C339" s="4"/>
       <c r="D339" s="4"/>
     </row>
     <row r="340" spans="1:4">
-      <c r="A340" s="4"/>
+      <c r="A340" s="10"/>
       <c r="B340" s="11"/>
       <c r="C340" s="4"/>
       <c r="D340" s="4"/>
     </row>
     <row r="341" spans="1:4">
-      <c r="A341" s="4"/>
+      <c r="A341" s="10"/>
       <c r="B341" s="11"/>
       <c r="C341" s="4"/>
       <c r="D341" s="4"/>
     </row>
     <row r="342" spans="1:4">
-      <c r="A342" s="4"/>
+      <c r="A342" s="10"/>
       <c r="B342" s="11"/>
       <c r="C342" s="4"/>
       <c r="D342" s="4"/>
     </row>
     <row r="343" spans="1:4">
-      <c r="A343" s="4"/>
+      <c r="A343" s="10"/>
       <c r="B343" s="11"/>
       <c r="C343" s="4"/>
       <c r="D343" s="4"/>
     </row>
     <row r="344" spans="1:4">
-      <c r="A344" s="4"/>
+      <c r="A344" s="10"/>
       <c r="B344" s="11"/>
       <c r="C344" s="4"/>
       <c r="D344" s="4"/>
     </row>
     <row r="345" spans="1:4">
-      <c r="A345" s="4"/>
+      <c r="A345" s="10"/>
       <c r="B345" s="11"/>
       <c r="C345" s="4"/>
       <c r="D345" s="4"/>
     </row>
     <row r="346" spans="1:4">
-      <c r="A346" s="4"/>
+      <c r="A346" s="10"/>
       <c r="B346" s="11"/>
       <c r="C346" s="4"/>
       <c r="D346" s="4"/>
     </row>
     <row r="347" spans="1:4">
-      <c r="A347" s="4"/>
+      <c r="A347" s="10"/>
       <c r="B347" s="11"/>
       <c r="C347" s="4"/>
       <c r="D347" s="4"/>
     </row>
     <row r="348" spans="1:4">
-      <c r="A348" s="4"/>
+      <c r="A348" s="10"/>
       <c r="B348" s="11"/>
       <c r="C348" s="4"/>
       <c r="D348" s="4"/>
     </row>
     <row r="349" spans="1:4">
-      <c r="A349" s="4"/>
+      <c r="A349" s="10"/>
       <c r="B349" s="11"/>
       <c r="C349" s="4"/>
       <c r="D349" s="4"/>
     </row>
     <row r="350" spans="1:4">
-      <c r="A350" s="4"/>
+      <c r="A350" s="10"/>
       <c r="B350" s="11"/>
       <c r="C350" s="4"/>
       <c r="D350" s="4"/>
     </row>
     <row r="351" spans="1:4">
-      <c r="A351" s="4"/>
+      <c r="A351" s="10"/>
       <c r="B351" s="11"/>
       <c r="C351" s="4"/>
       <c r="D351" s="4"/>
     </row>
     <row r="352" spans="1:4">
-      <c r="A352" s="4"/>
+      <c r="A352" s="10"/>
       <c r="B352" s="11"/>
       <c r="C352" s="4"/>
       <c r="D352" s="4"/>
     </row>
     <row r="353" spans="1:4">
-      <c r="A353" s="4"/>
+      <c r="A353" s="10"/>
       <c r="B353" s="11"/>
       <c r="C353" s="4"/>
       <c r="D353" s="4"/>
     </row>
     <row r="354" spans="1:4">
-      <c r="A354" s="4"/>
+      <c r="A354" s="10"/>
       <c r="B354" s="11"/>
       <c r="C354" s="4"/>
       <c r="D354" s="4"/>
     </row>
     <row r="355" spans="1:4">
-      <c r="A355" s="4"/>
+      <c r="A355" s="10"/>
       <c r="B355" s="11"/>
       <c r="C355" s="4"/>
       <c r="D355" s="4"/>
     </row>
     <row r="356" spans="1:4">
-      <c r="A356" s="4"/>
+      <c r="A356" s="10"/>
       <c r="B356" s="11"/>
       <c r="C356" s="4"/>
       <c r="D356" s="4"/>
     </row>
     <row r="357" spans="1:4">
-      <c r="A357" s="4"/>
+      <c r="A357" s="10"/>
       <c r="B357" s="11"/>
       <c r="C357" s="4"/>
       <c r="D357" s="4"/>
     </row>
     <row r="358" spans="1:4">
-      <c r="A358" s="4"/>
+      <c r="A358" s="10"/>
       <c r="B358" s="11"/>
       <c r="C358" s="4"/>
       <c r="D358" s="4"/>
     </row>
     <row r="359" spans="1:4">
-      <c r="A359" s="4"/>
+      <c r="A359" s="10"/>
       <c r="B359" s="11"/>
       <c r="C359" s="4"/>
       <c r="D359" s="4"/>
     </row>
     <row r="360" spans="1:4">
-      <c r="A360" s="4"/>
+      <c r="A360" s="10"/>
       <c r="B360" s="11"/>
       <c r="C360" s="4"/>
       <c r="D360" s="4"/>
     </row>
     <row r="361" spans="1:4">
-      <c r="A361" s="4"/>
+      <c r="A361" s="10"/>
       <c r="B361" s="11"/>
       <c r="C361" s="4"/>
       <c r="D361" s="4"/>
     </row>
     <row r="362" spans="1:4">
-      <c r="A362" s="4"/>
+      <c r="A362" s="10"/>
       <c r="B362" s="11"/>
       <c r="C362" s="4"/>
       <c r="D362" s="4"/>
     </row>
     <row r="363" spans="1:4">
-      <c r="A363" s="4"/>
+      <c r="A363" s="10"/>
       <c r="B363" s="11"/>
       <c r="C363" s="4"/>
       <c r="D363" s="4"/>
     </row>
     <row r="364" spans="1:4">
-      <c r="A364" s="4"/>
+      <c r="A364" s="10"/>
       <c r="B364" s="11"/>
       <c r="C364" s="4"/>
       <c r="D364" s="4"/>
     </row>
     <row r="365" spans="1:4">
-      <c r="A365" s="4"/>
+      <c r="A365" s="10"/>
       <c r="B365" s="11"/>
       <c r="C365" s="4"/>
       <c r="D365" s="4"/>
     </row>
     <row r="366" spans="1:4">
-      <c r="A366" s="4"/>
+      <c r="A366" s="10"/>
       <c r="B366" s="11"/>
       <c r="C366" s="4"/>
       <c r="D366" s="4"/>
     </row>
     <row r="367" spans="1:4">
-      <c r="A367" s="4"/>
+      <c r="A367" s="10"/>
       <c r="B367" s="11"/>
       <c r="C367" s="4"/>
       <c r="D367" s="4"/>
     </row>
     <row r="368" spans="1:4">
-      <c r="A368" s="4"/>
+      <c r="A368" s="10"/>
       <c r="B368" s="11"/>
       <c r="C368" s="4"/>
       <c r="D368" s="4"/>
     </row>
     <row r="369" spans="1:4">
-      <c r="A369" s="4"/>
+      <c r="A369" s="10"/>
       <c r="B369" s="11"/>
       <c r="C369" s="4"/>
       <c r="D369" s="4"/>
     </row>
     <row r="370" spans="1:4">
-      <c r="A370" s="4"/>
+      <c r="A370" s="10"/>
       <c r="B370" s="11"/>
       <c r="C370" s="4"/>
       <c r="D370" s="4"/>
     </row>
     <row r="371" spans="1:4">
-      <c r="A371" s="4"/>
+      <c r="A371" s="10"/>
       <c r="B371" s="11"/>
       <c r="C371" s="4"/>
       <c r="D371" s="4"/>
     </row>
     <row r="372" spans="1:4">
-      <c r="A372" s="4"/>
+      <c r="A372" s="10"/>
       <c r="B372" s="11"/>
       <c r="C372" s="4"/>
       <c r="D372" s="4"/>
     </row>
     <row r="373" spans="1:4">
-      <c r="A373" s="4"/>
+      <c r="A373" s="10"/>
       <c r="B373" s="11"/>
       <c r="C373" s="4"/>
       <c r="D373" s="4"/>
     </row>
     <row r="374" spans="1:4">
-      <c r="A374" s="4"/>
+      <c r="A374" s="10"/>
       <c r="B374" s="11"/>
       <c r="C374" s="4"/>
       <c r="D374" s="4"/>
     </row>
     <row r="375" spans="1:4">
-      <c r="A375" s="4"/>
+      <c r="A375" s="10"/>
       <c r="B375" s="11"/>
       <c r="C375" s="4"/>
       <c r="D375" s="4"/>
     </row>
     <row r="376" spans="1:4">
-      <c r="A376" s="4"/>
+      <c r="A376" s="10"/>
       <c r="B376" s="11"/>
       <c r="C376" s="4"/>
       <c r="D376" s="4"/>
     </row>
     <row r="377" spans="1:4">
-      <c r="A377" s="4"/>
+      <c r="A377" s="10"/>
       <c r="B377" s="11"/>
       <c r="C377" s="4"/>
       <c r="D377" s="4"/>
     </row>
     <row r="378" spans="1:4">
-      <c r="A378" s="4"/>
+      <c r="A378" s="10"/>
       <c r="B378" s="11"/>
       <c r="C378" s="4"/>
       <c r="D378" s="4"/>
     </row>
     <row r="379" spans="1:4">
-      <c r="A379" s="4"/>
+      <c r="A379" s="10"/>
       <c r="B379" s="11"/>
       <c r="C379" s="4"/>
       <c r="D379" s="4"/>
     </row>
     <row r="380" spans="1:4">
-      <c r="A380" s="4"/>
+      <c r="A380" s="10"/>
       <c r="B380" s="11"/>
       <c r="C380" s="4"/>
       <c r="D380" s="4"/>
     </row>
     <row r="381" spans="1:4">
-      <c r="A381" s="4"/>
+      <c r="A381" s="10"/>
       <c r="B381" s="11"/>
       <c r="C381" s="4"/>
       <c r="D381" s="4"/>
     </row>
     <row r="382" spans="1:4">
-      <c r="A382" s="4"/>
+      <c r="A382" s="10"/>
       <c r="B382" s="11"/>
       <c r="C382" s="4"/>
       <c r="D382" s="4"/>
     </row>
     <row r="383" spans="1:4">
-      <c r="A383" s="4"/>
+      <c r="A383" s="10"/>
       <c r="B383" s="11"/>
       <c r="C383" s="4"/>
       <c r="D383" s="4"/>
     </row>
     <row r="384" spans="1:4">
-      <c r="A384" s="4"/>
+      <c r="A384" s="10"/>
       <c r="B384" s="11"/>
       <c r="C384" s="4"/>
       <c r="D384" s="4"/>
     </row>
     <row r="385" spans="1:4">
-      <c r="A385" s="4"/>
+      <c r="A385" s="10"/>
       <c r="B385" s="11"/>
       <c r="C385" s="4"/>
       <c r="D385" s="4"/>
     </row>
     <row r="386" spans="1:4">
-      <c r="A386" s="4"/>
+      <c r="A386" s="10"/>
       <c r="B386" s="11"/>
       <c r="C386" s="4"/>
       <c r="D386" s="4"/>
     </row>
     <row r="387" spans="1:4">
-      <c r="A387" s="4"/>
+      <c r="A387" s="10"/>
       <c r="B387" s="11"/>
       <c r="C387" s="4"/>
       <c r="D387" s="4"/>
     </row>
     <row r="388" spans="1:4">
-      <c r="A388" s="4"/>
+      <c r="A388" s="10"/>
       <c r="B388" s="11"/>
       <c r="C388" s="4"/>
       <c r="D388" s="4"/>
     </row>
     <row r="389" spans="1:4">
-      <c r="A389" s="4"/>
+      <c r="A389" s="10"/>
       <c r="B389" s="11"/>
       <c r="C389" s="4"/>
       <c r="D389" s="4"/>
     </row>
     <row r="390" spans="1:4">
-      <c r="A390" s="4"/>
+      <c r="A390" s="10"/>
       <c r="B390" s="11"/>
       <c r="C390" s="4"/>
       <c r="D390" s="4"/>
     </row>
     <row r="391" spans="1:4">
-      <c r="A391" s="4"/>
+      <c r="A391" s="10"/>
       <c r="B391" s="11"/>
       <c r="C391" s="4"/>
       <c r="D391" s="4"/>
     </row>
     <row r="392" spans="1:4">
-      <c r="A392" s="4"/>
+      <c r="A392" s="10"/>
       <c r="B392" s="11"/>
       <c r="C392" s="4"/>
       <c r="D392" s="4"/>
     </row>
     <row r="393" spans="1:4">
-      <c r="A393" s="4"/>
+      <c r="A393" s="10"/>
       <c r="B393" s="11"/>
       <c r="C393" s="4"/>
       <c r="D393" s="4"/>
     </row>
     <row r="394" spans="1:4">
-      <c r="A394" s="4"/>
+      <c r="A394" s="10"/>
       <c r="B394" s="11"/>
       <c r="C394" s="4"/>
       <c r="D394" s="4"/>
     </row>
     <row r="395" spans="1:4">
-      <c r="A395" s="4"/>
+      <c r="A395" s="10"/>
       <c r="B395" s="11"/>
       <c r="C395" s="4"/>
       <c r="D395" s="4"/>
     </row>
     <row r="396" spans="1:4">
-      <c r="A396" s="4"/>
+      <c r="A396" s="10"/>
       <c r="B396" s="11"/>
       <c r="C396" s="4"/>
       <c r="D396" s="4"/>
     </row>
     <row r="397" spans="1:4">
-      <c r="A397" s="4"/>
+      <c r="A397" s="10"/>
       <c r="B397" s="11"/>
       <c r="C397" s="4"/>
       <c r="D397" s="4"/>
     </row>
     <row r="398" spans="1:4">
-      <c r="A398" s="4"/>
+      <c r="A398" s="10"/>
       <c r="B398" s="11"/>
       <c r="C398" s="4"/>
       <c r="D398" s="4"/>
     </row>
     <row r="399" spans="1:4">
-      <c r="A399" s="4"/>
+      <c r="A399" s="10"/>
       <c r="B399" s="11"/>
       <c r="C399" s="4"/>
       <c r="D399" s="4"/>
     </row>
     <row r="400" spans="1:4">
-      <c r="A400" s="4"/>
+      <c r="A400" s="10"/>
       <c r="B400" s="11"/>
       <c r="C400" s="4"/>
       <c r="D400" s="4"/>
     </row>
     <row r="401" spans="1:4">
-      <c r="A401" s="4"/>
+      <c r="A401" s="10"/>
       <c r="B401" s="11"/>
       <c r="C401" s="4"/>
       <c r="D401" s="4"/>
     </row>
     <row r="402" spans="1:4">
-      <c r="A402" s="4"/>
+      <c r="A402" s="10"/>
       <c r="B402" s="11"/>
       <c r="C402" s="4"/>
       <c r="D402" s="4"/>
     </row>
     <row r="403" spans="1:4">
-      <c r="A403" s="4"/>
+      <c r="A403" s="10"/>
       <c r="B403" s="11"/>
       <c r="C403" s="4"/>
       <c r="D403" s="4"/>
     </row>
     <row r="404" spans="1:4">
-      <c r="A404" s="4"/>
+      <c r="A404" s="10"/>
       <c r="B404" s="11"/>
       <c r="C404" s="4"/>
       <c r="D404" s="4"/>
     </row>
     <row r="405" spans="1:4">
-      <c r="A405" s="4"/>
+      <c r="A405" s="10"/>
       <c r="B405" s="11"/>
       <c r="C405" s="4"/>
       <c r="D405" s="4"/>
     </row>
     <row r="406" spans="1:4">
-      <c r="A406" s="4"/>
+      <c r="A406" s="10"/>
       <c r="B406" s="11"/>
       <c r="C406" s="4"/>
       <c r="D406" s="4"/>
     </row>
     <row r="407" spans="1:4">
-      <c r="A407" s="4"/>
+      <c r="A407" s="10"/>
       <c r="B407" s="11"/>
       <c r="C407" s="4"/>
       <c r="D407" s="4"/>
     </row>
     <row r="408" spans="1:4">
-      <c r="A408" s="4"/>
+      <c r="A408" s="10"/>
       <c r="B408" s="11"/>
       <c r="C408" s="4"/>
       <c r="D408" s="4"/>
     </row>
     <row r="409" spans="1:4">
-      <c r="A409" s="4"/>
+      <c r="A409" s="10"/>
       <c r="B409" s="11"/>
       <c r="C409" s="4"/>
       <c r="D409" s="4"/>
     </row>
     <row r="410" spans="1:4">
-      <c r="A410" s="4"/>
+      <c r="A410" s="10"/>
       <c r="B410" s="11"/>
       <c r="C410" s="4"/>
       <c r="D410" s="4"/>
     </row>
     <row r="411" spans="1:4">
-      <c r="A411" s="4"/>
+      <c r="A411" s="10"/>
       <c r="B411" s="11"/>
       <c r="C411" s="4"/>
       <c r="D411" s="4"/>
     </row>
     <row r="412" spans="1:4">
-      <c r="A412" s="4"/>
+      <c r="A412" s="10"/>
       <c r="B412" s="11"/>
       <c r="C412" s="4"/>
       <c r="D412" s="4"/>
     </row>
     <row r="413" spans="1:4">
-      <c r="A413" s="4"/>
+      <c r="A413" s="10"/>
       <c r="B413" s="11"/>
       <c r="C413" s="4"/>
       <c r="D413" s="4"/>
     </row>
     <row r="414" spans="1:4">
-      <c r="A414" s="4"/>
+      <c r="A414" s="10"/>
       <c r="B414" s="11"/>
       <c r="C414" s="4"/>
       <c r="D414" s="4"/>
     </row>
     <row r="415" spans="1:4">
-      <c r="A415" s="4"/>
+      <c r="A415" s="10"/>
       <c r="B415" s="11"/>
       <c r="C415" s="4"/>
       <c r="D415" s="4"/>
     </row>
     <row r="416" spans="1:4">
-      <c r="A416" s="4"/>
+      <c r="A416" s="10"/>
       <c r="B416" s="11"/>
       <c r="C416" s="4"/>
       <c r="D416" s="4"/>
     </row>
     <row r="417" spans="1:4">
-      <c r="A417" s="4"/>
+      <c r="A417" s="10"/>
       <c r="B417" s="11"/>
       <c r="C417" s="4"/>
       <c r="D417" s="4"/>
     </row>
     <row r="418" spans="1:4">
-      <c r="A418" s="4"/>
+      <c r="A418" s="10"/>
       <c r="B418" s="11"/>
       <c r="C418" s="4"/>
       <c r="D418" s="4"/>
     </row>
     <row r="419" spans="1:4">
-      <c r="A419" s="4"/>
+      <c r="A419" s="10"/>
       <c r="B419" s="11"/>
       <c r="C419" s="4"/>
       <c r="D419" s="4"/>
     </row>
     <row r="420" spans="1:4">
-      <c r="A420" s="4"/>
+      <c r="A420" s="10"/>
       <c r="B420" s="11"/>
       <c r="C420" s="4"/>
       <c r="D420" s="4"/>
     </row>
     <row r="421" spans="1:4">
-      <c r="A421" s="4"/>
+      <c r="A421" s="10"/>
       <c r="B421" s="11"/>
       <c r="C421" s="4"/>
       <c r="D421" s="4"/>
     </row>
     <row r="422" spans="1:4">
-      <c r="A422" s="4"/>
+      <c r="A422" s="10"/>
       <c r="B422" s="11"/>
       <c r="C422" s="4"/>
       <c r="D422" s="4"/>
     </row>
     <row r="423" spans="1:4">
-      <c r="A423" s="4"/>
+      <c r="A423" s="10"/>
       <c r="B423" s="11"/>
       <c r="C423" s="4"/>
       <c r="D423" s="4"/>
     </row>
     <row r="424" spans="1:4">
-      <c r="A424" s="4"/>
+      <c r="A424" s="10"/>
       <c r="B424" s="11"/>
       <c r="C424" s="4"/>
       <c r="D424" s="4"/>
     </row>
     <row r="425" spans="1:4">
-      <c r="A425" s="4"/>
+      <c r="A425" s="10"/>
       <c r="B425" s="11"/>
       <c r="C425" s="4"/>
       <c r="D425" s="4"/>
     </row>
     <row r="426" spans="1:4">
-      <c r="A426" s="4"/>
+      <c r="A426" s="10"/>
       <c r="B426" s="11"/>
       <c r="C426" s="4"/>
       <c r="D426" s="4"/>
     </row>
     <row r="427" spans="1:4">
-      <c r="A427" s="4"/>
+      <c r="A427" s="10"/>
       <c r="B427" s="11"/>
       <c r="C427" s="4"/>
       <c r="D427" s="4"/>
     </row>
     <row r="428" spans="1:4">
-      <c r="A428" s="4"/>
+      <c r="A428" s="10"/>
       <c r="B428" s="11"/>
       <c r="C428" s="4"/>
       <c r="D428" s="4"/>
     </row>
     <row r="429" spans="1:4">
-      <c r="A429" s="4"/>
+      <c r="A429" s="10"/>
       <c r="B429" s="11"/>
       <c r="C429" s="4"/>
       <c r="D429" s="4"/>
     </row>
     <row r="430" spans="1:4">
-      <c r="A430" s="4"/>
+      <c r="A430" s="10"/>
       <c r="B430" s="11"/>
       <c r="C430" s="4"/>
       <c r="D430" s="4"/>
     </row>
     <row r="431" spans="1:4">
-      <c r="A431" s="4"/>
+      <c r="A431" s="10"/>
       <c r="B431" s="11"/>
       <c r="C431" s="4"/>
       <c r="D431" s="4"/>
     </row>
     <row r="432" spans="1:4">
-      <c r="A432" s="4"/>
+      <c r="A432" s="10"/>
       <c r="B432" s="11"/>
       <c r="C432" s="4"/>
       <c r="D432" s="4"/>
     </row>
     <row r="433" spans="1:4">
-      <c r="A433" s="4"/>
+      <c r="A433" s="10"/>
       <c r="B433" s="11"/>
       <c r="C433" s="4"/>
       <c r="D433" s="4"/>
     </row>
     <row r="434" spans="1:4">
-      <c r="A434" s="4"/>
+      <c r="A434" s="10"/>
       <c r="B434" s="11"/>
       <c r="C434" s="4"/>
       <c r="D434" s="4"/>
     </row>
     <row r="435" spans="1:4">
-      <c r="A435" s="4"/>
+      <c r="A435" s="10"/>
       <c r="B435" s="11"/>
       <c r="C435" s="4"/>
       <c r="D435" s="4"/>
     </row>
     <row r="436" spans="1:4">
-      <c r="A436" s="4"/>
+      <c r="A436" s="10"/>
       <c r="B436" s="11"/>
       <c r="C436" s="4"/>
       <c r="D436" s="4"/>
     </row>
     <row r="437" spans="1:4">
-      <c r="A437" s="4"/>
+      <c r="A437" s="10"/>
       <c r="B437" s="11"/>
       <c r="C437" s="4"/>
       <c r="D437" s="4"/>
     </row>
     <row r="438" spans="1:4">
-      <c r="A438" s="4"/>
+      <c r="A438" s="10"/>
       <c r="B438" s="11"/>
       <c r="C438" s="4"/>
       <c r="D438" s="4"/>
     </row>
     <row r="439" spans="1:4">
-      <c r="A439" s="4"/>
+      <c r="A439" s="10"/>
       <c r="B439" s="11"/>
       <c r="C439" s="4"/>
       <c r="D439" s="4"/>
     </row>
     <row r="440" spans="1:4">
-      <c r="A440" s="4"/>
+      <c r="A440" s="10"/>
       <c r="B440" s="11"/>
       <c r="C440" s="4"/>
       <c r="D440" s="4"/>
     </row>
     <row r="441" spans="1:4">
-      <c r="A441" s="4"/>
+      <c r="A441" s="10"/>
       <c r="B441" s="11"/>
       <c r="C441" s="4"/>
       <c r="D441" s="4"/>
     </row>
     <row r="442" spans="1:4">
-      <c r="A442" s="4"/>
+      <c r="A442" s="10"/>
       <c r="B442" s="11"/>
       <c r="C442" s="4"/>
       <c r="D442" s="4"/>
     </row>
     <row r="443" spans="1:4">
-      <c r="A443" s="4"/>
+      <c r="A443" s="10"/>
       <c r="B443" s="11"/>
       <c r="C443" s="4"/>
       <c r="D443" s="4"/>
     </row>
     <row r="444" spans="1:4">
-      <c r="A444" s="4"/>
+      <c r="A444" s="10"/>
       <c r="B444" s="11"/>
       <c r="C444" s="4"/>
       <c r="D444" s="4"/>
     </row>
     <row r="445" spans="1:4">
-      <c r="A445" s="4"/>
+      <c r="A445" s="10"/>
       <c r="B445" s="11"/>
       <c r="C445" s="4"/>
       <c r="D445" s="4"/>
     </row>
     <row r="446" spans="1:4">
-      <c r="A446" s="4"/>
+      <c r="A446" s="10"/>
       <c r="B446" s="11"/>
       <c r="C446" s="4"/>
       <c r="D446" s="4"/>
     </row>
     <row r="447" spans="1:4">
-      <c r="A447" s="4"/>
+      <c r="A447" s="10"/>
       <c r="B447" s="11"/>
       <c r="C447" s="4"/>
       <c r="D447" s="4"/>
     </row>
     <row r="448" spans="1:4">
-      <c r="A448" s="4"/>
+      <c r="A448" s="10"/>
       <c r="B448" s="11"/>
       <c r="C448" s="4"/>
       <c r="D448" s="4"/>
     </row>
     <row r="449" spans="1:4">
-      <c r="A449" s="4"/>
+      <c r="A449" s="10"/>
       <c r="B449" s="11"/>
       <c r="C449" s="4"/>
       <c r="D449" s="4"/>
     </row>
     <row r="450" spans="1:4">
-      <c r="A450" s="4"/>
+      <c r="A450" s="10"/>
       <c r="B450" s="11"/>
       <c r="C450" s="4"/>
       <c r="D450" s="4"/>
     </row>
     <row r="451" spans="1:4">
-      <c r="A451" s="4"/>
+      <c r="A451" s="10"/>
       <c r="B451" s="11"/>
       <c r="C451" s="4"/>
       <c r="D451" s="4"/>
     </row>
     <row r="452" spans="1:4">
-      <c r="A452" s="4"/>
+      <c r="A452" s="10"/>
       <c r="B452" s="11"/>
       <c r="C452" s="4"/>
       <c r="D452" s="4"/>
     </row>
     <row r="453" spans="1:4">
-      <c r="A453" s="4"/>
+      <c r="A453" s="10"/>
       <c r="B453" s="11"/>
       <c r="C453" s="4"/>
       <c r="D453" s="4"/>
     </row>
     <row r="454" spans="1:4">
-      <c r="A454" s="4"/>
+      <c r="A454" s="10"/>
       <c r="B454" s="11"/>
       <c r="C454" s="4"/>
       <c r="D454" s="4"/>
     </row>
     <row r="455" spans="1:4">
-      <c r="A455" s="4"/>
+      <c r="A455" s="10"/>
       <c r="B455" s="11"/>
       <c r="C455" s="4"/>
       <c r="D455" s="4"/>
     </row>
     <row r="456" spans="1:4">
-      <c r="A456" s="4"/>
+      <c r="A456" s="10"/>
       <c r="B456" s="11"/>
       <c r="C456" s="4"/>
       <c r="D456" s="4"/>
     </row>
     <row r="457" spans="1:4">
-      <c r="A457" s="4"/>
+      <c r="A457" s="10"/>
       <c r="B457" s="11"/>
       <c r="C457" s="4"/>
       <c r="D457" s="4"/>
     </row>
     <row r="458" spans="1:4">
-      <c r="A458" s="4"/>
+      <c r="A458" s="10"/>
       <c r="B458" s="11"/>
       <c r="C458" s="4"/>
       <c r="D458" s="4"/>
     </row>
     <row r="459" spans="1:4">
-      <c r="A459" s="4"/>
+      <c r="A459" s="10"/>
       <c r="B459" s="11"/>
       <c r="C459" s="4"/>
       <c r="D459" s="4"/>
     </row>
     <row r="460" spans="1:4">
-      <c r="A460" s="4"/>
+      <c r="A460" s="10"/>
       <c r="B460" s="11"/>
       <c r="C460" s="4"/>
       <c r="D460" s="4"/>
     </row>
     <row r="461" spans="1:4">
-      <c r="A461" s="4"/>
+      <c r="A461" s="10"/>
       <c r="B461" s="11"/>
       <c r="C461" s="4"/>
       <c r="D461" s="4"/>
     </row>
     <row r="462" spans="1:4">
-      <c r="A462" s="4"/>
+      <c r="A462" s="10"/>
       <c r="B462" s="11"/>
       <c r="C462" s="4"/>
       <c r="D462" s="4"/>
     </row>
     <row r="463" spans="1:4">
-      <c r="A463" s="4"/>
+      <c r="A463" s="10"/>
       <c r="B463" s="11"/>
       <c r="C463" s="4"/>
       <c r="D463" s="4"/>
     </row>
     <row r="464" spans="1:4">
-      <c r="A464" s="4"/>
+      <c r="A464" s="10"/>
       <c r="B464" s="11"/>
       <c r="C464" s="4"/>
       <c r="D464" s="4"/>
     </row>
     <row r="465" spans="1:4">
-      <c r="A465" s="4"/>
+      <c r="A465" s="10"/>
       <c r="B465" s="11"/>
       <c r="C465" s="4"/>
       <c r="D465" s="4"/>
     </row>
     <row r="466" spans="1:4">
-      <c r="A466" s="4"/>
+      <c r="A466" s="10"/>
       <c r="B466" s="11"/>
       <c r="C466" s="4"/>
       <c r="D466" s="4"/>
     </row>
     <row r="467" spans="1:4">
-      <c r="A467" s="4"/>
+      <c r="A467" s="10"/>
       <c r="B467" s="11"/>
       <c r="C467" s="4"/>
       <c r="D467" s="4"/>
     </row>
     <row r="468" spans="1:4">
-      <c r="A468" s="4"/>
+      <c r="A468" s="10"/>
       <c r="B468" s="11"/>
       <c r="C468" s="4"/>
       <c r="D468" s="4"/>
     </row>
     <row r="469" spans="1:4">
-      <c r="A469" s="4"/>
+      <c r="A469" s="10"/>
       <c r="B469" s="11"/>
       <c r="C469" s="4"/>
       <c r="D469" s="4"/>
     </row>
     <row r="470" spans="1:4">
-      <c r="A470" s="4"/>
+      <c r="A470" s="10"/>
       <c r="B470" s="11"/>
       <c r="C470" s="4"/>
       <c r="D470" s="4"/>
     </row>
     <row r="471" spans="1:4">
-      <c r="A471" s="4"/>
+      <c r="A471" s="10"/>
       <c r="B471" s="11"/>
       <c r="C471" s="4"/>
       <c r="D471" s="4"/>
     </row>
     <row r="472" spans="1:4">
-      <c r="A472" s="4"/>
+      <c r="A472" s="10"/>
       <c r="B472" s="11"/>
       <c r="C472" s="4"/>
       <c r="D472" s="4"/>
     </row>
     <row r="473" spans="1:4">
-      <c r="A473" s="4"/>
+      <c r="A473" s="10"/>
       <c r="B473" s="11"/>
       <c r="C473" s="4"/>
       <c r="D473" s="4"/>
     </row>
     <row r="474" spans="1:4">
-      <c r="A474" s="4"/>
+      <c r="A474" s="10"/>
       <c r="B474" s="11"/>
       <c r="C474" s="4"/>
       <c r="D474" s="4"/>
     </row>
     <row r="475" spans="1:4">
-      <c r="A475" s="4"/>
+      <c r="A475" s="10"/>
       <c r="B475" s="11"/>
       <c r="C475" s="4"/>
       <c r="D475" s="4"/>
     </row>
     <row r="476" spans="1:4">
-      <c r="A476" s="4"/>
+      <c r="A476" s="10"/>
       <c r="B476" s="11"/>
       <c r="C476" s="4"/>
       <c r="D476" s="4"/>
     </row>
     <row r="477" spans="1:4">
-      <c r="A477" s="4"/>
+      <c r="A477" s="10"/>
       <c r="B477" s="11"/>
       <c r="C477" s="4"/>
       <c r="D477" s="4"/>
     </row>
     <row r="478" spans="1:4">
-      <c r="A478" s="4"/>
+      <c r="A478" s="10"/>
       <c r="B478" s="11"/>
       <c r="C478" s="4"/>
       <c r="D478" s="4"/>
     </row>
     <row r="479" spans="1:4">
-      <c r="A479" s="4"/>
+      <c r="A479" s="10"/>
       <c r="B479" s="11"/>
       <c r="C479" s="4"/>
       <c r="D479" s="4"/>
     </row>
     <row r="480" spans="1:4">
-      <c r="A480" s="4"/>
+      <c r="A480" s="10"/>
       <c r="B480" s="11"/>
       <c r="C480" s="4"/>
       <c r="D480" s="4"/>
     </row>
     <row r="481" spans="1:4">
-      <c r="A481" s="4"/>
+      <c r="A481" s="10"/>
       <c r="B481" s="11"/>
       <c r="C481" s="4"/>
       <c r="D481" s="4"/>
     </row>
     <row r="482" spans="1:4">
-      <c r="A482" s="4"/>
+      <c r="A482" s="10"/>
       <c r="B482" s="11"/>
       <c r="C482" s="4"/>
       <c r="D482" s="4"/>
     </row>
     <row r="483" spans="1:4">
-      <c r="A483" s="4"/>
+      <c r="A483" s="10"/>
       <c r="B483" s="11"/>
       <c r="C483" s="4"/>
       <c r="D483" s="4"/>
     </row>
     <row r="484" spans="1:4">
-      <c r="A484" s="4"/>
+      <c r="A484" s="10"/>
       <c r="B484" s="11"/>
       <c r="C484" s="4"/>
       <c r="D484" s="4"/>
     </row>
     <row r="485" spans="1:4">
-      <c r="A485" s="4"/>
+      <c r="A485" s="10"/>
       <c r="B485" s="11"/>
       <c r="C485" s="4"/>
       <c r="D485" s="4"/>
     </row>
     <row r="486" spans="1:4">
-      <c r="A486" s="4"/>
+      <c r="A486" s="10"/>
       <c r="B486" s="11"/>
       <c r="C486" s="4"/>
       <c r="D486" s="4"/>
     </row>
     <row r="487" spans="1:4">
-      <c r="A487" s="4"/>
+      <c r="A487" s="10"/>
       <c r="B487" s="11"/>
       <c r="C487" s="4"/>
       <c r="D487" s="4"/>
     </row>
     <row r="488" spans="1:4">
-      <c r="A488" s="4"/>
+      <c r="A488" s="10"/>
       <c r="B488" s="11"/>
       <c r="C488" s="4"/>
       <c r="D488" s="4"/>
     </row>
     <row r="489" spans="1:4">
-      <c r="A489" s="4"/>
+      <c r="A489" s="10"/>
       <c r="B489" s="11"/>
       <c r="C489" s="4"/>
       <c r="D489" s="4"/>
     </row>
     <row r="490" spans="1:4">
-      <c r="A490" s="4"/>
+      <c r="A490" s="10"/>
       <c r="B490" s="11"/>
       <c r="C490" s="4"/>
       <c r="D490" s="4"/>
     </row>
     <row r="491" spans="1:4">
-      <c r="A491" s="4"/>
+      <c r="A491" s="10"/>
       <c r="B491" s="11"/>
       <c r="C491" s="4"/>
       <c r="D491" s="4"/>
     </row>
     <row r="492" spans="1:4">
-      <c r="A492" s="4"/>
+      <c r="A492" s="10"/>
       <c r="B492" s="11"/>
       <c r="C492" s="4"/>
       <c r="D492" s="4"/>
     </row>
     <row r="493" spans="1:4">
-      <c r="A493" s="4"/>
+      <c r="A493" s="10"/>
       <c r="B493" s="11"/>
       <c r="C493" s="4"/>
       <c r="D493" s="4"/>
     </row>
     <row r="494" spans="1:4">
-      <c r="A494" s="4"/>
+      <c r="A494" s="10"/>
       <c r="B494" s="11"/>
       <c r="C494" s="4"/>
       <c r="D494" s="4"/>
     </row>
     <row r="495" spans="1:4">
-      <c r="A495" s="4"/>
+      <c r="A495" s="10"/>
       <c r="B495" s="11"/>
       <c r="C495" s="4"/>
       <c r="D495" s="4"/>
     </row>
     <row r="496" spans="1:4">
-      <c r="A496" s="4"/>
+      <c r="A496" s="10"/>
       <c r="B496" s="11"/>
       <c r="C496" s="4"/>
       <c r="D496" s="4"/>
     </row>
     <row r="497" spans="1:4">
-      <c r="A497" s="4"/>
+      <c r="A497" s="10"/>
       <c r="B497" s="11"/>
       <c r="C497" s="4"/>
       <c r="D497" s="4"/>
     </row>
     <row r="498" spans="1:4">
-      <c r="A498" s="4"/>
+      <c r="A498" s="10"/>
       <c r="B498" s="11"/>
       <c r="C498" s="4"/>
       <c r="D498" s="4"/>
     </row>
     <row r="499" spans="1:4">
-      <c r="A499" s="4"/>
+      <c r="A499" s="10"/>
       <c r="B499" s="11"/>
       <c r="C499" s="4"/>
       <c r="D499" s="4"/>
     </row>
     <row r="500" spans="1:4">
-      <c r="A500" s="4" t="s">
+      <c r="A500" s="10" t="s">
         <v>284</v>
       </c>
       <c r="B500" s="11" t="s">
@@ -5382,6 +5966,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
